--- a/inst/snow_survey/SnowSurveyTemplate.xlsx
+++ b/inst/snow_survey/SnowSurveyTemplate.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Env-fs\env-data\corp\water\Hydrology\11_SnowMet_Network\02_Manual_Surveys\10_Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estewart\Documents\R\Projects\YGwater\inst\snow_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C3FD7-C2C1-41AA-889C-8F57C78EAF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14370" yWindow="0" windowWidth="13860" windowHeight="15750"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1_bc" sheetId="3" r:id="rId2"/>
     <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -1099,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1108,20 +1109,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,66 +1122,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1208,41 +1150,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,15 +1159,171 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1268,12 +1331,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,19 +1342,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1334,13 +1393,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1367,13 +1426,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1382,46 +1441,48 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1430,68 +1491,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,47 +1555,44 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1565,37 +1609,32 @@
     <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -1733,49 +1772,10 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1787,6 +1787,7 @@
       </font>
       <fill>
         <patternFill>
+          <fgColor auto="1"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1804,172 +1805,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,14 +1872,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2083,241 +1937,11 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2391,233 +2015,8 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -2633,6 +2032,7 @@
       </font>
       <fill>
         <patternFill>
+          <fgColor auto="1"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2699,61 +2099,41 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF33CCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF33CCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2807,277 +2187,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3089,17 +2205,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -3127,118 +2232,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3280,7 +2273,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3295,8 +2288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="5713676"/>
-          <a:ext cx="3214688" cy="7814470"/>
+          <a:off x="6574631" y="5658907"/>
+          <a:ext cx="3217069" cy="7780868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3540,16 +2533,6 @@
             </a:rPr>
             <a:t>Notes specific to a sample. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3682,16 +2665,6 @@
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3768,16 +2741,6 @@
             </a:rPr>
             <a:t>Any note or description for the survey that could not be captured in the other sections. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3818,7 +2781,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3833,8 +2796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6574631" y="5658907"/>
-          <a:ext cx="3217069" cy="7712076"/>
+          <a:off x="7108031" y="5858932"/>
+          <a:ext cx="3217069" cy="7790393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4078,16 +3041,6 @@
             </a:rPr>
             <a:t>Notes specific to a sample. </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -4273,16 +3226,6 @@
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:t>Any note or description for the survey that could not be captured in the other sections. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
@@ -4612,175 +3555,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="12" max="12" width="19.453125" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="147" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="166" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="171" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="109" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="110"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="154" t="s">
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="46"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="109" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="110"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="157" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="109" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="110"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="160" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="109" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="110"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="174" t="s">
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="175"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="109" t="s">
         <v>37</v>
       </c>
@@ -4793,20 +3736,20 @@
       <c r="G9" s="118"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
-      <c r="J9" s="163" t="s">
+      <c r="J9" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="164"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="109" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
       <c r="G10" s="79"/>
@@ -4817,428 +3760,428 @@
       </c>
       <c r="K10" s="120"/>
       <c r="L10" s="121"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
       <c r="B11" s="125" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="126"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="122" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="123"/>
       <c r="L11" s="124"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="20" t="s">
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
-      <c r="B13" s="6">
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="44">
         <v>1</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="7" t="str">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30" t="str">
         <f>IF(OR(ISBLANK(E13),ISBLANK(F13)),"",IF($D$9="standard",F13-E13,""))</f>
         <v/>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="31" t="str">
         <f t="shared" ref="H13:H22" si="0">IFERROR(IF($D$9="standard", (G13/C13)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="45" t="str">
         <f>IFERROR(D13/C13*100, "")</f>
         <v/>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
-      <c r="B14" s="6">
+      <c r="J13" s="43"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="44">
         <v>2</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="7" t="str">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="str">
         <f t="shared" ref="G14:G22" si="1">IF(OR(ISBLANK(E14),ISBLANK(F14)),"",IF($D$9="standard",F14-E14,""))</f>
         <v/>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="9" t="str">
+      <c r="I14" s="45" t="str">
         <f t="shared" ref="I14:I22" si="2">IFERROR(D14/C14*100, "")</f>
         <v/>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="6">
+      <c r="J14" s="48"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="44">
         <v>3</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="7" t="str">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="9" t="str">
+      <c r="I15" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
-      <c r="B16" s="6">
+      <c r="J15" s="43"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="44">
         <v>4</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="7" t="str">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="I16" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="46"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="15"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
-      <c r="B17" s="6">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="44">
         <v>5</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="7" t="str">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="H17" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I17" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
-      <c r="B18" s="6">
+      <c r="J17" s="43"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="44">
         <v>6</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="7" t="str">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="9" t="str">
+      <c r="I18" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
-      <c r="B19" s="6">
+      <c r="J18" s="43"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="44">
         <v>7</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="7" t="str">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
-      <c r="B20" s="6">
+      <c r="J19" s="43"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="44">
         <v>8</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="7" t="str">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="9" t="str">
+      <c r="I20" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
-      <c r="B21" s="6">
+      <c r="J20" s="43"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="44">
         <v>9</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="7" t="str">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="10">
+      <c r="J21" s="43"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="44">
         <v>10</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="11" t="str">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="12" t="str">
+      <c r="H22" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="13" t="s">
+      <c r="J22" s="33"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="67" t="str">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35" t="str">
         <f>IF(OR(ISBLANK(E23),ISBLANK(F23)),"",IF($D$9="bulk",F23-E23,""))</f>
         <v/>
       </c>
-      <c r="H23" s="68" t="str">
+      <c r="H23" s="36" t="str">
         <f>IFERROR(IF($D$9="bulk", G23/(SUM(C13:C22))*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="127" t="s">
         <v>61</v>
       </c>
       <c r="L23" s="129"/>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
-      <c r="B24" s="15" t="s">
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="24">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37">
         <f>IF($D$9="standard",SUMIFS(G13:G22, K13:K22, ""), "")</f>
         <v>0</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="128"/>
       <c r="L24" s="130"/>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="10" t="s">
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="72" t="str">
+      <c r="C25" s="40" t="str">
         <f>IFERROR(AVERAGEIFS(C13:C22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="D25" s="72" t="str">
+      <c r="D25" s="40" t="str">
         <f>IFERROR(AVERAGEIFS(D13:D22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="72" t="str">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40" t="str">
         <f>IFERROR(IF($D$9="Standard", AVERAGEIFS(G13:G22, K13:K22, ""), IF(D9="Bulk",G23/COUNT(D13:D22),"")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="73" t="str">
+      <c r="H25" s="42" t="str">
         <f>IFERROR(IF($D$9="standard", AVERAGEIFS(H13:H22, K13:K22, ""), IF($D$9="Bulk",H23,"")), "")</f>
         <v/>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="28" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" s="84" t="s">
         <v>53</v>
       </c>
@@ -5249,96 +4192,96 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="86"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="138" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="18" t="s">
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="62"/>
+      <c r="F29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-    </row>
-    <row r="30" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="26" t="s">
+      <c r="I29" s="28"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="65"/>
+      <c r="F30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="27" t="s">
+      <c r="G30" s="65"/>
+      <c r="H30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
       <c r="B31" s="84" t="s">
         <v>54</v>
       </c>
@@ -5349,18 +4292,18 @@
       <c r="G31" s="85"/>
       <c r="H31" s="85"/>
       <c r="I31" s="86"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="46"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="111" t="s">
         <v>18</v>
       </c>
@@ -5370,19 +4313,19 @@
       <c r="F32" s="112"/>
       <c r="G32" s="112"/>
       <c r="H32" s="113"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="B33" s="111" t="s">
         <v>19</v>
       </c>
@@ -5392,19 +4335,19 @@
       <c r="F33" s="112"/>
       <c r="G33" s="112"/>
       <c r="H33" s="113"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="111" t="s">
         <v>20</v>
       </c>
@@ -5414,19 +4357,19 @@
       <c r="F34" s="112"/>
       <c r="G34" s="112"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="111" t="s">
         <v>21</v>
       </c>
@@ -5436,91 +4379,91 @@
       <c r="F35" s="112"/>
       <c r="G35" s="112"/>
       <c r="H35" s="113"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
       <c r="B36" s="114" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="115"/>
       <c r="D36" s="115"/>
-      <c r="E36" s="58"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="116" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="112"/>
       <c r="H36" s="113"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="136" t="s">
+      <c r="I36" s="28"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="137" t="s">
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="46"/>
-      <c r="B38" s="136" t="s">
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="141" t="s">
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="142"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="106" t="s">
         <v>87</v>
       </c>
@@ -5531,18 +4474,18 @@
       <c r="G39" s="107"/>
       <c r="H39" s="107"/>
       <c r="I39" s="108"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
       <c r="B40" s="100"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
@@ -5551,18 +4494,18 @@
       <c r="G40" s="101"/>
       <c r="H40" s="101"/>
       <c r="I40" s="102"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
       <c r="B41" s="100"/>
       <c r="C41" s="101"/>
       <c r="D41" s="101"/>
@@ -5571,18 +4514,18 @@
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
       <c r="I41" s="102"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="103"/>
       <c r="C42" s="104"/>
       <c r="D42" s="104"/>
@@ -5591,40 +4534,40 @@
       <c r="G42" s="104"/>
       <c r="H42" s="104"/>
       <c r="I42" s="105"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="46"/>
-      <c r="B43" s="144" t="s">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="46"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
       <c r="B44" s="111" t="s">
         <v>71</v>
       </c>
@@ -5634,19 +4577,19 @@
       <c r="F44" s="112"/>
       <c r="G44" s="112"/>
       <c r="H44" s="113"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="46"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
       <c r="B45" s="111" t="s">
         <v>22</v>
       </c>
@@ -5656,19 +4599,19 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="113"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="46"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="111" t="s">
         <v>23</v>
       </c>
@@ -5678,41 +4621,41 @@
       <c r="F46" s="112"/>
       <c r="G46" s="112"/>
       <c r="H46" s="113"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-    </row>
-    <row r="47" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="133" t="s">
+      <c r="I46" s="28"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="46"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
       <c r="B48" s="84" t="s">
         <v>72</v>
       </c>
@@ -5723,13 +4666,13 @@
       <c r="G48" s="85"/>
       <c r="H48" s="85"/>
       <c r="I48" s="86"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="46"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="46"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
       <c r="B49" s="82" t="s">
         <v>73</v>
       </c>
@@ -5739,14 +4682,14 @@
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="46"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="46"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
       <c r="B50" s="82" t="s">
         <v>81</v>
       </c>
@@ -5756,14 +4699,14 @@
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
       <c r="H50" s="83"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="46"/>
-    </row>
-    <row r="51" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
       <c r="B51" s="82" t="s">
         <v>74</v>
       </c>
@@ -5773,14 +4716,14 @@
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
       <c r="H51" s="83"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="46"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="46"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
       <c r="B52" s="97" t="s">
         <v>59</v>
       </c>
@@ -5791,13 +4734,13 @@
       <c r="G52" s="98"/>
       <c r="H52" s="98"/>
       <c r="I52" s="99"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="46"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="46"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="91"/>
       <c r="C53" s="92"/>
       <c r="D53" s="92"/>
@@ -5806,13 +4749,13 @@
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
       <c r="I53" s="93"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="46"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="46"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
       <c r="B54" s="91"/>
       <c r="C54" s="92"/>
       <c r="D54" s="92"/>
@@ -5821,13 +4764,13 @@
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
       <c r="I54" s="93"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="46"/>
-    </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="94"/>
       <c r="C55" s="95"/>
       <c r="D55" s="95"/>
@@ -5836,258 +4779,257 @@
       <c r="G55" s="95"/>
       <c r="H55" s="95"/>
       <c r="I55" s="96"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="46"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="46"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="46"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="46"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="46"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
       <c r="B58" s="84" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="85"/>
       <c r="D58" s="86"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="46"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="46"/>
-      <c r="B59" s="76" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="77" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="87"/>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="46"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="46"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="88" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="89"/>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="46"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="46"/>
-      <c r="B61" s="76" t="s">
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="33">
+      <c r="C61" s="78"/>
+      <c r="D61" s="74">
         <v>4</v>
       </c>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="46"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="46"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
       <c r="B62" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="90"/>
-      <c r="D62" s="32">
+      <c r="D62" s="73">
         <v>5</v>
       </c>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="46"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="46"/>
-      <c r="B63" s="76" t="s">
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="15"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="31">
+      <c r="C63" s="78"/>
+      <c r="D63" s="72">
         <v>50</v>
       </c>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="46"/>
-    </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="46"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
       <c r="B64" s="80" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="81"/>
-      <c r="D64" s="34">
+      <c r="D64" s="75">
         <v>66</v>
       </c>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="46"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="46"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="14"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="14"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B74" s="14"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="14"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="14"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B78" s="14"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="94QlkEiC4zgDL9lue670roTtChl0z5cL07lM9fhchGcfhPpf4ZZ2ZVIitfcwcRWnEruF7quO9M5hGae2E2QMgA==" saltValue="7T3t+Nr5TzCSUmU6VZJqrw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="J5:L5"/>
@@ -6151,281 +5093,113 @@
     <mergeCell ref="B39:I39"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="150" priority="142">
+    <cfRule type="expression" dxfId="64" priority="1495">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:J13">
-    <cfRule type="expression" dxfId="149" priority="4">
-      <formula>NOT(ISBLANK($K$13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:J14">
-    <cfRule type="expression" dxfId="148" priority="5">
-      <formula>NOT(ISBLANK($K$14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:J15">
-    <cfRule type="expression" dxfId="147" priority="6">
-      <formula>NOT(ISBLANK($K$15))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:J16">
-    <cfRule type="expression" dxfId="146" priority="7">
-      <formula>NOT(ISBLANK($K$16))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:J17">
-    <cfRule type="expression" dxfId="145" priority="8">
-      <formula>NOT(ISBLANK($K$17))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:J18">
-    <cfRule type="expression" dxfId="144" priority="9">
-      <formula>NOT(ISBLANK($K$18))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:J19">
-    <cfRule type="expression" dxfId="143" priority="10">
-      <formula>NOT(ISBLANK($K$19))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:J20">
-    <cfRule type="expression" dxfId="142" priority="11">
-      <formula>NOT(ISBLANK($K$20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:J21">
-    <cfRule type="expression" dxfId="141" priority="12">
-      <formula>NOT(ISBLANK($K$21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:J22">
-    <cfRule type="expression" dxfId="140" priority="13">
-      <formula>NOT(ISBLANK($K$22))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="139" priority="3">
-      <formula>D11 &lt; D10</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="138" priority="125">
+    <cfRule type="expression" dxfId="63" priority="1478">
       <formula>ISBLANK($D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="126">
+    <cfRule type="expression" dxfId="62" priority="1479">
       <formula>OR(D7 &gt; D6 + 6, D7 &lt; D6 - 6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:I11">
-    <cfRule type="expression" dxfId="136" priority="2">
-      <formula>ISBLANK(D11)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="135" priority="143">
+    <cfRule type="expression" dxfId="61" priority="1496">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:H22">
-    <cfRule type="expression" dxfId="134" priority="14">
+    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="133" priority="366" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="364" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="363" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="365" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$13/100</formula>
+  <conditionalFormatting sqref="F13:I22 C13:D22">
+    <cfRule type="expression" dxfId="59" priority="5" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="129" priority="370" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="G13:G22">
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="greaterThanOrEqual">
       <formula>($H$25+$D$61)*$C$14/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="367" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="14" operator="greaterThan">
       <formula>($H$25+$D$62)*$C$14/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="368" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="15" operator="lessThan">
       <formula>($H$25-$D$62)*$C$14/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="369" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="16" operator="lessThanOrEqual">
       <formula>($H$25-$D$61)*$C$14/100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="125" priority="374" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$15/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="372" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$15/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="373" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$15/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="371" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$15/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="121" priority="378" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$16/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="377" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$16/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="376" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$16/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="375" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$16/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="117" priority="379" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$17/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="380" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$17/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="381" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$17/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="382" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$17/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="113" priority="383" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$18/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="384" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$18/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="385" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$18/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="386" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$18/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="109" priority="387" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$19/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="388" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$19/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="389" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$19/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="390" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$19/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="105" priority="394" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$20/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="391" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$20/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="392" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$20/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="393" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$20/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="101" priority="395" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$21/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="396" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$21/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="397" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$21/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="398" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$21/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="97" priority="399" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$22/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="400" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$22/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="401" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$22/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="402" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$22/100</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="93" priority="138">
+    <cfRule type="expression" dxfId="54" priority="1491">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H22">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+      <formula>ISBLANK($F13)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="92" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1354">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I22">
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+      <formula>ISBLANK($C13)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H13:H22">
-    <cfRule type="cellIs" dxfId="91" priority="360" operator="lessThanOrEqual">
-      <formula>$H$25-$D$61</formula>
+    <cfRule type="containsBlanks" dxfId="50" priority="6">
+      <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="359" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThanOrEqual">
       <formula>$H$25+$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="358" operator="greaterThan">
-      <formula>$H$25+$D$62</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="357" operator="lessThan">
-      <formula>$H$25-$D$62</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="87" priority="356">
-      <formula>LEN(TRIM(H13))=0</formula>
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="86" priority="362" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="lessThan">
       <formula>$D$64</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="361" operator="lessThan">
-      <formula>$D$63</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Must be in YYYY-MM-DD format" sqref="D7:I7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="YYYY-MM-DD format" sqref="D7:I7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OR(UPPER(C29)="X", LOWER(C29)="x")</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0.1</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>-50</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$D$59:$D$60</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -6437,174 +5211,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="12" max="12" width="19.453125" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="147" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="166" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="171" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="172"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="109" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="110"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="154" t="s">
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="46"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="109" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="110"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="157" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="158"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="109" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="110"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="160" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="109" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="110"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="174" t="s">
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="175"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="109" t="s">
         <v>37</v>
       </c>
@@ -6617,20 +5391,20 @@
       <c r="G9" s="118"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
-      <c r="J9" s="163" t="s">
+      <c r="J9" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="164"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="109" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
       <c r="G10" s="79"/>
@@ -6641,430 +5415,430 @@
       </c>
       <c r="K10" s="120"/>
       <c r="L10" s="121"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
       <c r="B11" s="125" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="126"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
       <c r="J11" s="122" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="123"/>
       <c r="L11" s="124"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <v>1</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="7" t="str">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30" t="str">
         <f>IF(OR(ISBLANK(E13),ISBLANK(F13)),"",IF($D$9="standard",F13-E13,""))</f>
         <v/>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="31" t="str">
         <f t="shared" ref="H13:H22" si="0">IFERROR(IF($D$9="standard", (G13/C13)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="45" t="str">
         <f>IFERROR(D13/C13*100, "")</f>
         <v/>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="J13" s="43"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
         <v>2</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="7" t="str">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="str">
         <f t="shared" ref="G14:G22" si="1">IF(OR(ISBLANK(E14),ISBLANK(F14)),"",IF($D$9="standard",F14-E14,""))</f>
         <v/>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="9" t="str">
+      <c r="I14" s="45" t="str">
         <f t="shared" ref="I14:I22" si="2">IFERROR(D14/C14*100, "")</f>
         <v/>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="J14" s="48"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
         <v>3</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="7" t="str">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="9" t="str">
+      <c r="I15" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="J15" s="43"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
         <v>4</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="7" t="str">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="31" t="str">
         <f>IFERROR(IF($D$9="standard", (G16/C16)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="I16" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="46"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="15"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
         <v>5</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="7" t="str">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="H17" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I17" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="J17" s="43"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
         <v>6</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="7" t="str">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="9" t="str">
+      <c r="I18" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="J18" s="43"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
         <v>7</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="7" t="str">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="J19" s="43"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
         <v>8</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="7" t="str">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="9" t="str">
+      <c r="I20" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="J20" s="43"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
         <v>9</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="7" t="str">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10">
+      <c r="J21" s="43"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54">
         <v>10</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="11" t="str">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="12" t="str">
+      <c r="H22" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="13" t="s">
+      <c r="J22" s="33"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60"/>
+      <c r="B23" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="67" t="str">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35" t="str">
         <f>IF(OR(ISBLANK(E23),ISBLANK(F23)),"",IF($D$9="bulk",F23-E23,""))</f>
         <v/>
       </c>
-      <c r="H23" s="68" t="str">
+      <c r="H23" s="36" t="str">
         <f>IFERROR(IF($D$9="bulk", G23/(SUM(C13:C22))*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="127" t="s">
         <v>61</v>
       </c>
       <c r="L23" s="129"/>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
-      <c r="B24" s="15" t="s">
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="24">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37">
         <f>IF($D$9="standard",SUMIFS(G13:G22, K13:K22, ""), "")</f>
         <v>0</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="128"/>
       <c r="L24" s="130"/>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="10" t="s">
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="72" t="str">
+      <c r="C25" s="40" t="str">
         <f>IFERROR(AVERAGEIFS(C13:C22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="D25" s="72" t="str">
+      <c r="D25" s="40" t="str">
         <f>IFERROR(AVERAGEIFS(D13:D22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="72" t="str">
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="40" t="str">
         <f>IFERROR(IF($D$9="Standard", AVERAGEIFS(G13:G22, K13:K22, ""), IF(D9="Bulk",G23/COUNT(D13:D22),"")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="73" t="str">
+      <c r="H25" s="42" t="str">
         <f>IFERROR(IF($D$9="standard", AVERAGEIFS(H13:H22, K13:K22, ""), IF($D$9="Bulk",H23,"")), "")</f>
         <v/>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="28" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" s="84" t="s">
         <v>53</v>
       </c>
@@ -7075,96 +5849,96 @@
       <c r="G27" s="85"/>
       <c r="H27" s="85"/>
       <c r="I27" s="86"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="138" t="s">
+      <c r="J27" s="17"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="18" t="s">
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="62"/>
+      <c r="F29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-    </row>
-    <row r="30" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="26" t="s">
+      <c r="I29" s="28"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="65"/>
+      <c r="F30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="27" t="s">
+      <c r="G30" s="65"/>
+      <c r="H30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
       <c r="B31" s="84" t="s">
         <v>54</v>
       </c>
@@ -7175,18 +5949,18 @@
       <c r="G31" s="85"/>
       <c r="H31" s="85"/>
       <c r="I31" s="86"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="46"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="111" t="s">
         <v>18</v>
       </c>
@@ -7196,19 +5970,19 @@
       <c r="F32" s="112"/>
       <c r="G32" s="112"/>
       <c r="H32" s="113"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="B33" s="111" t="s">
         <v>19</v>
       </c>
@@ -7218,19 +5992,19 @@
       <c r="F33" s="112"/>
       <c r="G33" s="112"/>
       <c r="H33" s="113"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="111" t="s">
         <v>20</v>
       </c>
@@ -7240,19 +6014,19 @@
       <c r="F34" s="112"/>
       <c r="G34" s="112"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="111" t="s">
         <v>21</v>
       </c>
@@ -7262,91 +6036,91 @@
       <c r="F35" s="112"/>
       <c r="G35" s="112"/>
       <c r="H35" s="113"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
       <c r="B36" s="114" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="115"/>
       <c r="D36" s="115"/>
-      <c r="E36" s="58"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="116" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="112"/>
       <c r="H36" s="113"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
-      <c r="B37" s="136" t="s">
+      <c r="I36" s="28"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="137" t="s">
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="46"/>
-      <c r="B38" s="136" t="s">
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="141" t="s">
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="142"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="B39" s="106" t="s">
         <v>87</v>
       </c>
@@ -7357,18 +6131,18 @@
       <c r="G39" s="107"/>
       <c r="H39" s="107"/>
       <c r="I39" s="108"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
       <c r="B40" s="100"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
@@ -7377,18 +6151,18 @@
       <c r="G40" s="101"/>
       <c r="H40" s="101"/>
       <c r="I40" s="102"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
       <c r="B41" s="100"/>
       <c r="C41" s="101"/>
       <c r="D41" s="101"/>
@@ -7397,18 +6171,18 @@
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
       <c r="I41" s="102"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-    </row>
-    <row r="42" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="103"/>
       <c r="C42" s="104"/>
       <c r="D42" s="104"/>
@@ -7417,40 +6191,40 @@
       <c r="G42" s="104"/>
       <c r="H42" s="104"/>
       <c r="I42" s="105"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="46"/>
-      <c r="B43" s="144" t="s">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="46"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
       <c r="B44" s="111" t="s">
         <v>71</v>
       </c>
@@ -7460,19 +6234,19 @@
       <c r="F44" s="112"/>
       <c r="G44" s="112"/>
       <c r="H44" s="113"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="46"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
       <c r="B45" s="111" t="s">
         <v>22</v>
       </c>
@@ -7482,19 +6256,19 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
       <c r="H45" s="113"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="46"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="B46" s="111" t="s">
         <v>23</v>
       </c>
@@ -7504,41 +6278,41 @@
       <c r="F46" s="112"/>
       <c r="G46" s="112"/>
       <c r="H46" s="113"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-    </row>
-    <row r="47" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="133" t="s">
+      <c r="I46" s="28"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="46"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
       <c r="B48" s="84" t="s">
         <v>72</v>
       </c>
@@ -7549,13 +6323,13 @@
       <c r="G48" s="85"/>
       <c r="H48" s="85"/>
       <c r="I48" s="86"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="46"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="46"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
       <c r="B49" s="82" t="s">
         <v>73</v>
       </c>
@@ -7565,14 +6339,14 @@
       <c r="F49" s="83"/>
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="46"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="46"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
       <c r="B50" s="82" t="s">
         <v>81</v>
       </c>
@@ -7582,14 +6356,14 @@
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
       <c r="H50" s="83"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="46"/>
-    </row>
-    <row r="51" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
       <c r="B51" s="82" t="s">
         <v>74</v>
       </c>
@@ -7599,14 +6373,14 @@
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
       <c r="H51" s="83"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="46"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="46"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
       <c r="B52" s="97" t="s">
         <v>59</v>
       </c>
@@ -7617,13 +6391,13 @@
       <c r="G52" s="98"/>
       <c r="H52" s="98"/>
       <c r="I52" s="99"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="46"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="46"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="B53" s="91"/>
       <c r="C53" s="92"/>
       <c r="D53" s="92"/>
@@ -7632,13 +6406,13 @@
       <c r="G53" s="92"/>
       <c r="H53" s="92"/>
       <c r="I53" s="93"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="46"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="46"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
       <c r="B54" s="91"/>
       <c r="C54" s="92"/>
       <c r="D54" s="92"/>
@@ -7647,13 +6421,13 @@
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
       <c r="I54" s="93"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="46"/>
-    </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="94"/>
       <c r="C55" s="95"/>
       <c r="D55" s="95"/>
@@ -7662,258 +6436,257 @@
       <c r="G55" s="95"/>
       <c r="H55" s="95"/>
       <c r="I55" s="96"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="46"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="46"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="46"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="46"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="46"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
       <c r="B58" s="84" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="85"/>
       <c r="D58" s="86"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="46"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="46"/>
-      <c r="B59" s="76" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="77" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="87"/>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="46"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="46"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="B60" s="88" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="89"/>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="46"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="46"/>
-      <c r="B61" s="76" t="s">
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="33">
+      <c r="C61" s="78"/>
+      <c r="D61" s="74">
         <v>4</v>
       </c>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="46"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="46"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
       <c r="B62" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="90"/>
-      <c r="D62" s="32">
+      <c r="D62" s="73">
         <v>5</v>
       </c>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="46"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="46"/>
-      <c r="B63" s="76" t="s">
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="15"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="31">
+      <c r="C63" s="78"/>
+      <c r="D63" s="72">
         <v>50</v>
       </c>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="46"/>
-    </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="46"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
       <c r="B64" s="80" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="81"/>
-      <c r="D64" s="34">
+      <c r="D64" s="75">
         <v>66</v>
       </c>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="46"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="46"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="14"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="14"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B74" s="14"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="14"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="14"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B78" s="14"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dxhclR8/joUkadv3CSxpSsMU545RWFR4Qip/U3+a9Ludxl5JBdnjMxejs7wjlzAXT+CyO2LjFyb4h3VaQMf8Wg==" saltValue="rRkhQs6mnfTevcmc3Druaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B4:C4"/>
@@ -7976,285 +6749,127 @@
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
   </mergeCells>
-  <conditionalFormatting sqref="B13:J13">
-    <cfRule type="expression" dxfId="84" priority="4">
-      <formula>NOT(ISBLANK($K$13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:J14">
-    <cfRule type="expression" dxfId="83" priority="5">
-      <formula>NOT(ISBLANK($K$14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:J15">
-    <cfRule type="expression" dxfId="82" priority="6">
-      <formula>NOT(ISBLANK($K$15))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:J16">
-    <cfRule type="expression" dxfId="81" priority="7">
-      <formula>NOT(ISBLANK($K$16))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:J17">
-    <cfRule type="expression" dxfId="80" priority="8">
-      <formula>NOT(ISBLANK($K$17))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:J18">
-    <cfRule type="expression" dxfId="79" priority="9">
-      <formula>NOT(ISBLANK($K$18))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:J19">
-    <cfRule type="expression" dxfId="78" priority="10">
-      <formula>NOT(ISBLANK($K$19))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:J20">
-    <cfRule type="expression" dxfId="77" priority="11">
-      <formula>NOT(ISBLANK($K$20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:J21">
-    <cfRule type="expression" dxfId="76" priority="12">
-      <formula>NOT(ISBLANK($K$21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:J22">
-    <cfRule type="expression" dxfId="75" priority="13">
-      <formula>NOT(ISBLANK($K$22))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="74" priority="18">
+    <cfRule type="expression" dxfId="42" priority="311">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="41" priority="296">
       <formula>D11 &lt; D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="72" priority="15">
+    <cfRule type="expression" dxfId="40" priority="308">
       <formula>ISBLANK($D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="16">
+    <cfRule type="expression" dxfId="39" priority="309">
       <formula>OR(D7 &gt; D6 + 6, D7 &lt; D6 - 6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="38" priority="295">
       <formula>ISBLANK(D11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="69" priority="19">
+    <cfRule type="expression" dxfId="37" priority="312">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:H22">
-    <cfRule type="expression" dxfId="68" priority="14">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="67" priority="30" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$13/100</formula>
+  <conditionalFormatting sqref="F13:I22 B13:D22">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K13))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G22">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C$13/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
       <formula>($H$25-$D$62)*$C$13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="29" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$13/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="63" priority="34" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$14/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="31" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$14/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="32" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$14/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$14/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="59" priority="38" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$15/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$15/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="37" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$15/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="35" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$15/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="55" priority="42" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$16/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="41" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$16/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$16/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="39" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$16/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$17/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$17/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$17/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$17/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$18/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$18/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$18/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$18/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$19/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$19/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="53" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$19/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="54" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$19/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$20/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="55" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$20/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="56" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$20/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="57" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$20/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="35" priority="59" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$21/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="60" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$21/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="61" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$21/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="62" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$21/100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="31" priority="63" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$22/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="64" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$22/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="65" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$22/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="66" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$22/100</formula>
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C$13/100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="31" priority="310">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H22">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+      <formula>ISBLANK($F13)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="29" priority="294">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I22">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+      <formula>ISBLANK($C13)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H13:H22">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
       <formula>$H$25-$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="greaterThanOrEqual">
-      <formula>$H$25+$D$61</formula>
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C$13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="greaterThan">
-      <formula>$H$25+$D$62</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
-      <formula>$H$25-$D$62</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="21" priority="20">
+    <cfRule type="containsBlanks" dxfId="22" priority="16">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThan">
       <formula>$D$64</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="lessThan">
-      <formula>$D$63</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$D$59:$D$60</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>-50</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0.1</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>OR(UPPER(C29)="X", LOWER(C29)="x")</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Must be in YYYY-MM-DD format" sqref="D7:I7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="YYYY-MM-DD format" sqref="D7:I7" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8263,441 +6878,441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29"/>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="29"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="29"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="29"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="29"/>
-      <c r="K26" s="30"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="11"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
-      <c r="K27" s="30"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="11"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="29"/>
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="11"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="11"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
-      <c r="K30" s="30"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="11"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="29"/>
-      <c r="K32" s="30"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="29"/>
-      <c r="K33" s="30"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="11"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="K35" s="30"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="K36" s="30"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="K37" s="30"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K38" s="30"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K39" s="30"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K40" s="30"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K41" s="30"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K42" s="30"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K43" s="30"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K44" s="30"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K46" s="30"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="12"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GAGG2Sqsp8YG2XvKTukeDkEeaGM6yd0qYH11fyVXzNMHNyguqk3yd5J8DgzUdx8Jp8ocemg2K5tLzNH9CBJ7Ug==" saltValue="WpwHXy8mQW5gzr8vbbAv0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/inst/snow_survey/SnowSurveyTemplate.xlsx
+++ b/inst/snow_survey/SnowSurveyTemplate.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estewart\Documents\R\Projects\YGwater\inst\snow_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Env-fs\env-data\corp\water\Hydrology\11_SnowMet_Network\02_Manual_Surveys\10_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C3FD7-C2C1-41AA-889C-8F57C78EAF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1_bc" sheetId="3" r:id="rId2"/>
     <sheet name="Summary" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -1325,16 +1324,229 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1346,18 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1392,15 +1592,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1433,198 +1624,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1634,7 +1633,3623 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="355">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1765,480 +5380,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2533,6 +5674,16 @@
             </a:rPr>
             <a:t>Notes specific to a sample. </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -2665,6 +5816,16 @@
             </a:rPr>
             <a:t>. </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -2740,6 +5901,16 @@
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:t>Any note or description for the survey that could not be captured in the other sections. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
@@ -3041,6 +6212,16 @@
             </a:rPr>
             <a:t>Notes specific to a sample. </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -3226,6 +6407,16 @@
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:t>Any note or description for the survey that could not be captured in the other sections. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="nv-Latn" sz="1200" b="0" i="0" u="none" strike="noStrike">
@@ -3555,31 +6746,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3594,194 +6785,194 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="148"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="149" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="151"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="152" t="s">
+      <c r="C6" s="96"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="155" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="166" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="168"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="117" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="158" t="s">
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="159"/>
-      <c r="L9" s="160"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="119" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="122" t="s">
+      <c r="C11" s="137"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
         <v>2</v>
@@ -3818,7 +7009,7 @@
       </c>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="44">
         <v>1</v>
@@ -3844,7 +7035,7 @@
       <c r="L13" s="47"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="44">
         <v>2</v>
@@ -3870,7 +7061,7 @@
       <c r="L14" s="49"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="44">
         <v>3</v>
@@ -3896,7 +7087,7 @@
       <c r="L15" s="49"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="44">
         <v>4</v>
@@ -3923,7 +7114,7 @@
       <c r="M16" s="15"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="44">
         <v>5</v>
@@ -3949,7 +7140,7 @@
       <c r="L17" s="49"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="44">
         <v>6</v>
@@ -3975,7 +7166,7 @@
       <c r="L18" s="49"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="44">
         <v>7</v>
@@ -4001,7 +7192,7 @@
       <c r="L19" s="49"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="44">
         <v>8</v>
@@ -4027,7 +7218,7 @@
       <c r="L20" s="49"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="44">
         <v>9</v>
@@ -4053,7 +7244,7 @@
       <c r="L21" s="49"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="44">
         <v>10</v>
@@ -4079,7 +7270,7 @@
       <c r="L22" s="51"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15"/>
       <c r="B23" s="52" t="s">
         <v>36</v>
@@ -4098,13 +7289,13 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="127" t="s">
+      <c r="K23" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="129"/>
+      <c r="L23" s="140"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="53" t="s">
         <v>7</v>
@@ -4120,11 +7311,11 @@
       <c r="H24" s="39"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="130"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="141"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="54" t="s">
         <v>8</v>
@@ -4160,7 +7351,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="57"/>
       <c r="C26" s="58"/>
@@ -4180,18 +7371,18 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="22"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
@@ -4202,17 +7393,17 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="138"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="28"/>
       <c r="J28" s="22"/>
       <c r="K28" s="60"/>
@@ -4224,7 +7415,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="61" t="s">
         <v>10</v>
@@ -4252,7 +7443,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="64" t="s">
         <v>11</v>
@@ -4280,18 +7471,18 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
       <c r="J31" s="22"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
@@ -4302,17 +7493,17 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="28"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -4324,17 +7515,17 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="28"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -4346,17 +7537,17 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="28"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -4368,17 +7559,17 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="28"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -4390,19 +7581,19 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="62"/>
-      <c r="F36" s="116" t="s">
+      <c r="F36" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="112"/>
       <c r="I36" s="28"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
@@ -4414,19 +7605,19 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
       <c r="I37" s="69"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -4438,19 +7629,19 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="70"/>
-      <c r="F38" s="139" t="s">
+      <c r="F38" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="78"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123"/>
       <c r="I38" s="71"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -4462,18 +7653,18 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="170"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -4484,16 +7675,16 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="102"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="164"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -4504,16 +7695,16 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="102"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="164"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -4524,16 +7715,16 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="15"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="167"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -4544,18 +7735,18 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="142"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="129"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -4566,17 +7757,17 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -4588,17 +7779,17 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="113"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="112"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -4610,17 +7801,17 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
-      <c r="B46" s="111" t="s">
+      <c r="B46" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -4632,17 +7823,17 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="115"/>
       <c r="I47" s="69"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -4654,137 +7845,137 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="86"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="126"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="15"/>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="93"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="93"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="15"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="96"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="161"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -4799,7 +7990,7 @@
       <c r="L56" s="17"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="15"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -4814,13 +8005,13 @@
       <c r="L57" s="17"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="86"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -4831,12 +8022,12 @@
       <c r="L58" s="17"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="72" t="s">
         <v>39</v>
       </c>
@@ -4850,12 +8041,12 @@
       <c r="L59" s="17"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="154"/>
       <c r="D60" s="73" t="s">
         <v>38</v>
       </c>
@@ -4869,12 +8060,12 @@
       <c r="L60" s="17"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="78"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="74">
         <v>4</v>
       </c>
@@ -4888,12 +8079,12 @@
       <c r="L61" s="17"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="155"/>
       <c r="D62" s="73">
         <v>5</v>
       </c>
@@ -4907,12 +8098,12 @@
       <c r="L62" s="17"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="72">
         <v>50</v>
       </c>
@@ -4926,12 +8117,12 @@
       <c r="L63" s="17"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="15"/>
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="81"/>
+      <c r="C64" s="150"/>
       <c r="D64" s="75">
         <v>66</v>
       </c>
@@ -4945,7 +8136,7 @@
       <c r="L64" s="17"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="17"/>
@@ -4960,7 +8151,7 @@
       <c r="L65" s="17"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -4973,7 +8164,7 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -4986,7 +8177,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -4999,38 +8190,83 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5KdI+EZs/ZXM6GN9XIjLZZ61IC07WdeuX/JMJteheOVb1IKh56aLDxzz5js0qg2X4QkZaBC2GXGlu/r+h1RrXw==" saltValue="63nVzEKoRsS98ESIx8H8TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B53:I55"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B45:H45"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J6:L6"/>
@@ -5047,159 +8283,673 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B53:I55"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B40:I42"/>
-    <mergeCell ref="B39:I39"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="64" priority="1495">
+    <cfRule type="expression" dxfId="335" priority="1639">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="63" priority="1478">
+    <cfRule type="expression" dxfId="334" priority="1622">
       <formula>ISBLANK($D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="1479">
+    <cfRule type="expression" dxfId="333" priority="1623">
       <formula>OR(D7 &gt; D6 + 6, D7 &lt; D6 - 6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="61" priority="1496">
+    <cfRule type="expression" dxfId="332" priority="1640">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:H22">
-    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E13:H13">
+    <cfRule type="expression" dxfId="331" priority="145" stopIfTrue="1">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:I22 C13:D22">
-    <cfRule type="expression" dxfId="59" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F13:I13 C13:D13">
+    <cfRule type="expression" dxfId="330" priority="149" stopIfTrue="1">
       <formula>NOT(ISBLANK($K13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G22">
-    <cfRule type="cellIs" dxfId="58" priority="17" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$14/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="14" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$14/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="15" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$14/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="16" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$14/100</formula>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="314" priority="161" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C13/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="158" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C13/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="159" operator="lessThan">
+      <formula>($H$25-$D$62)*$C13/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="160" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C13/100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="54" priority="1491">
+    <cfRule type="expression" dxfId="329" priority="1635">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H22">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="expression" dxfId="328" priority="148" stopIfTrue="1">
       <formula>ISBLANK($F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="52" priority="1354">
+    <cfRule type="expression" dxfId="327" priority="1498">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I22">
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="G13:I13">
+    <cfRule type="expression" dxfId="326" priority="147" stopIfTrue="1">
       <formula>ISBLANK($C13)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H22">
-    <cfRule type="containsBlanks" dxfId="50" priority="6">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsBlanks" dxfId="325" priority="150">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="151" operator="lessThan">
       <formula>$H$25-$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="152" operator="greaterThan">
       <formula>$H$25+$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="322" priority="153" operator="greaterThanOrEqual">
       <formula>$H$25+$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="321" priority="154" operator="lessThanOrEqual">
       <formula>$H$25-$D$61</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="320" priority="155" operator="greaterThan">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="156" operator="lessThan">
       <formula>$D$63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="157" operator="lessThan">
       <formula>$D$64</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14:H14">
+    <cfRule type="expression" dxfId="313" priority="129" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:I14 C14:D14">
+    <cfRule type="expression" dxfId="312" priority="132" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="310" priority="141" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C14/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="142" operator="lessThan">
+      <formula>($H$25-$D$62)*$C14/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="143" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C14/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="144" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C14/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="307" priority="131" stopIfTrue="1">
+      <formula>ISBLANK($F14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:I14">
+    <cfRule type="expression" dxfId="306" priority="130" stopIfTrue="1">
+      <formula>ISBLANK($C14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsBlanks" dxfId="305" priority="133">
+      <formula>LEN(TRIM(H14))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="134" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="135" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="136" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="137" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="300" priority="138" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="139" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="140" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:H15">
+    <cfRule type="expression" dxfId="297" priority="113" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:I15 C15:D15">
+    <cfRule type="expression" dxfId="296" priority="116" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="294" priority="125" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C15/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="126" operator="lessThan">
+      <formula>($H$25-$D$62)*$C15/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="127" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C15/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="128" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C15/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="expression" dxfId="291" priority="115" stopIfTrue="1">
+      <formula>ISBLANK($F15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:I15">
+    <cfRule type="expression" dxfId="290" priority="114" stopIfTrue="1">
+      <formula>ISBLANK($C15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsBlanks" dxfId="289" priority="117">
+      <formula>LEN(TRIM(H15))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="118" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="119" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="120" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="121" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="284" priority="122" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="123" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="124" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:H16">
+    <cfRule type="expression" dxfId="281" priority="97" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:I16 C16:D16">
+    <cfRule type="expression" dxfId="280" priority="100" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="278" priority="109" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C16/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="110" operator="lessThan">
+      <formula>($H$25-$D$62)*$C16/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="111" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C16/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="112" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C16/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="expression" dxfId="275" priority="99" stopIfTrue="1">
+      <formula>ISBLANK($F16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I16">
+    <cfRule type="expression" dxfId="274" priority="98" stopIfTrue="1">
+      <formula>ISBLANK($C16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsBlanks" dxfId="273" priority="101">
+      <formula>LEN(TRIM(H16))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="102" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="103" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="104" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="105" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="268" priority="106" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="107" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="108" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:H17">
+    <cfRule type="expression" dxfId="265" priority="81" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:I17 C17:D17">
+    <cfRule type="expression" dxfId="264" priority="84" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="262" priority="93" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C17/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="94" operator="lessThan">
+      <formula>($H$25-$D$62)*$C17/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="95" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C17/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="96" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C17/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="expression" dxfId="259" priority="83" stopIfTrue="1">
+      <formula>ISBLANK($F17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:I17">
+    <cfRule type="expression" dxfId="258" priority="82" stopIfTrue="1">
+      <formula>ISBLANK($C17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsBlanks" dxfId="257" priority="85">
+      <formula>LEN(TRIM(H17))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="86" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="87" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="88" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="89" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="252" priority="90" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="91" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="92" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:H18">
+    <cfRule type="expression" dxfId="249" priority="65" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:I18 C18:D18">
+    <cfRule type="expression" dxfId="248" priority="68" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="246" priority="77" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C18/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="78" operator="lessThan">
+      <formula>($H$25-$D$62)*$C18/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="79" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C18/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="80" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C18/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="expression" dxfId="243" priority="67" stopIfTrue="1">
+      <formula>ISBLANK($F18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:I18">
+    <cfRule type="expression" dxfId="242" priority="66" stopIfTrue="1">
+      <formula>ISBLANK($C18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsBlanks" dxfId="241" priority="69">
+      <formula>LEN(TRIM(H18))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="70" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="71" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="72" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="73" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="236" priority="74" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="75" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="76" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:H19">
+    <cfRule type="expression" dxfId="233" priority="49" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:I19 C19:D19">
+    <cfRule type="expression" dxfId="232" priority="52" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K19))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="230" priority="61" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C19/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="62" operator="lessThan">
+      <formula>($H$25-$D$62)*$C19/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="63" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C19/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="64" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C19/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="expression" dxfId="227" priority="51" stopIfTrue="1">
+      <formula>ISBLANK($F19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:I19">
+    <cfRule type="expression" dxfId="226" priority="50" stopIfTrue="1">
+      <formula>ISBLANK($C19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsBlanks" dxfId="225" priority="53">
+      <formula>LEN(TRIM(H19))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="54" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="55" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="56" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="57" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="220" priority="58" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="59" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="60" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:H20">
+    <cfRule type="expression" dxfId="217" priority="33" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:I20 C20:D20">
+    <cfRule type="expression" dxfId="216" priority="36" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="214" priority="45" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C20/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="46" operator="lessThan">
+      <formula>($H$25-$D$62)*$C20/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="47" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C20/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="48" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C20/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="expression" dxfId="211" priority="35" stopIfTrue="1">
+      <formula>ISBLANK($F20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:I20">
+    <cfRule type="expression" dxfId="210" priority="34" stopIfTrue="1">
+      <formula>ISBLANK($C20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsBlanks" dxfId="209" priority="37">
+      <formula>LEN(TRIM(H20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="38" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="39" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="40" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="41" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="204" priority="42" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="43" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="44" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:H21">
+    <cfRule type="expression" dxfId="201" priority="17" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:I21 C21:D21">
+    <cfRule type="expression" dxfId="200" priority="20" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="198" priority="29" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C21/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="30" operator="lessThan">
+      <formula>($H$25-$D$62)*$C21/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="31" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C21/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="32" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C21/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="195" priority="19" stopIfTrue="1">
+      <formula>ISBLANK($F21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:I21">
+    <cfRule type="expression" dxfId="194" priority="18" stopIfTrue="1">
+      <formula>ISBLANK($C21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsBlanks" dxfId="193" priority="21">
+      <formula>LEN(TRIM(H21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="22" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="23" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="24" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="25" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="188" priority="26" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="27" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="28" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:H22">
+    <cfRule type="expression" dxfId="185" priority="1" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:I22 C22:D22">
+    <cfRule type="expression" dxfId="184" priority="4" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="182" priority="13" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C22/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="14" operator="lessThan">
+      <formula>($H$25-$D$62)*$C22/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="15" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C22/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="16" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C22/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="expression" dxfId="179" priority="3" stopIfTrue="1">
+      <formula>ISBLANK($F22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:I22">
+    <cfRule type="expression" dxfId="178" priority="2" stopIfTrue="1">
+      <formula>ISBLANK($C22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsBlanks" dxfId="177" priority="5">
+      <formula>LEN(TRIM(H22))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="7" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="8" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="9" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="cellIs" dxfId="172" priority="10" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="11" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="12" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="YYYY-MM-DD format" sqref="D7:I7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="YYYY-MM-DD format" sqref="D7:I7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38">
       <formula1>OR(UPPER(C29)="X", LOWER(C29)="x")</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48">
       <formula1>0.1</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28">
       <formula1>-50</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9">
       <formula1>$D$59:$D$60</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5211,30 +8961,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:H36"/>
+      <selection activeCell="D8" sqref="D8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5249,194 +8999,194 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="148"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="149" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="151"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="152" t="s">
+      <c r="C6" s="96"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="155" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="166" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="168"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="117" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="158" t="s">
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="159"/>
-      <c r="L9" s="160"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="119" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="126"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="171"/>
       <c r="E11" s="171"/>
       <c r="F11" s="171"/>
       <c r="G11" s="171"/>
       <c r="H11" s="171"/>
       <c r="I11" s="171"/>
-      <c r="J11" s="122" t="s">
+      <c r="J11" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
@@ -5475,7 +9225,7 @@
       </c>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="44">
         <v>1</v>
       </c>
@@ -5501,7 +9251,7 @@
       <c r="L13" s="47"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="44">
         <v>2</v>
       </c>
@@ -5527,7 +9277,7 @@
       <c r="L14" s="49"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="44">
         <v>3</v>
       </c>
@@ -5553,7 +9303,7 @@
       <c r="L15" s="49"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="44">
         <v>4</v>
       </c>
@@ -5580,7 +9330,7 @@
       <c r="M16" s="15"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="44">
         <v>5</v>
       </c>
@@ -5606,7 +9356,7 @@
       <c r="L17" s="49"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="44">
         <v>6</v>
       </c>
@@ -5632,7 +9382,7 @@
       <c r="L18" s="49"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="44">
         <v>7</v>
       </c>
@@ -5658,7 +9408,7 @@
       <c r="L19" s="49"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="44">
         <v>8</v>
       </c>
@@ -5684,7 +9434,7 @@
       <c r="L20" s="49"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="44">
         <v>9</v>
       </c>
@@ -5710,7 +9460,7 @@
       <c r="L21" s="49"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="54">
         <v>10</v>
       </c>
@@ -5736,7 +9486,7 @@
       <c r="L22" s="51"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="60"/>
       <c r="B23" s="52" t="s">
         <v>36</v>
@@ -5755,13 +9505,13 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="127" t="s">
+      <c r="K23" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="129"/>
+      <c r="L23" s="140"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="60"/>
       <c r="B24" s="53" t="s">
         <v>7</v>
@@ -5777,11 +9527,11 @@
       <c r="H24" s="39"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="130"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="141"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="60"/>
       <c r="B25" s="54" t="s">
         <v>8</v>
@@ -5817,7 +9567,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -5837,18 +9587,18 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="17"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -5859,17 +9609,17 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="138"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="28"/>
       <c r="J28" s="17"/>
       <c r="K28" s="15"/>
@@ -5881,7 +9631,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="61" t="s">
         <v>10</v>
@@ -5909,7 +9659,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="64" t="s">
         <v>11</v>
@@ -5937,18 +9687,18 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
       <c r="J31" s="17"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -5959,17 +9709,17 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="28"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -5981,17 +9731,17 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="28"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -6003,17 +9753,17 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="28"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -6025,17 +9775,17 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="28"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -6047,19 +9797,19 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="62"/>
-      <c r="F36" s="116" t="s">
+      <c r="F36" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="112"/>
       <c r="I36" s="28"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -6071,19 +9821,19 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
       <c r="I37" s="69"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -6095,19 +9845,19 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="70"/>
-      <c r="F38" s="139" t="s">
+      <c r="F38" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="78"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123"/>
       <c r="I38" s="71"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6119,18 +9869,18 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="108"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="170"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -6141,16 +9891,16 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="102"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="164"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -6161,16 +9911,16 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="102"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="164"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -6181,16 +9931,16 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="15"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="167"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -6201,18 +9951,18 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="142"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="129"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -6223,17 +9973,17 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -6245,17 +9995,17 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="113"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="112"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -6267,17 +10017,17 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
-      <c r="B46" s="111" t="s">
+      <c r="B46" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -6289,17 +10039,17 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="115"/>
       <c r="I47" s="69"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -6311,137 +10061,137 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="86"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="126"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="15"/>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="93"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="93"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="158"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="15"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="96"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="161"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -6456,7 +10206,7 @@
       <c r="L56" s="17"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="15"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -6471,13 +10221,13 @@
       <c r="L57" s="17"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="86"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -6488,12 +10238,12 @@
       <c r="L58" s="17"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="72" t="s">
         <v>39</v>
       </c>
@@ -6507,12 +10257,12 @@
       <c r="L59" s="17"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="154"/>
       <c r="D60" s="73" t="s">
         <v>38</v>
       </c>
@@ -6526,12 +10276,12 @@
       <c r="L60" s="17"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="78"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="74">
         <v>4</v>
       </c>
@@ -6545,12 +10295,12 @@
       <c r="L61" s="17"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="155"/>
       <c r="D62" s="73">
         <v>5</v>
       </c>
@@ -6564,12 +10314,12 @@
       <c r="L62" s="17"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="72">
         <v>50</v>
       </c>
@@ -6583,12 +10333,12 @@
       <c r="L63" s="17"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="15"/>
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="81"/>
+      <c r="C64" s="150"/>
       <c r="D64" s="75">
         <v>66</v>
       </c>
@@ -6602,7 +10352,7 @@
       <c r="L64" s="17"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="17"/>
@@ -6617,7 +10367,7 @@
       <c r="L65" s="17"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -6630,7 +10380,7 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -6643,7 +10393,7 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -6656,63 +10406,61 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zBBF0Z6GSW0g2pYctVQclDcfJIbvagbGbWtBjy60taicOVcwmpHv2ci9JA5dRpkh0Oge0XTeW3nHhEOtpKAO7Q==" saltValue="BD8J6NW8jHKgwDz/tOu8jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:H49"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="K23:K24"/>
@@ -6726,150 +10474,711 @@
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="42" priority="311">
+    <cfRule type="expression" dxfId="167" priority="455">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="41" priority="296">
+    <cfRule type="expression" dxfId="166" priority="440">
       <formula>D11 &lt; D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="40" priority="308">
+    <cfRule type="expression" dxfId="165" priority="452">
       <formula>ISBLANK($D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="309">
+    <cfRule type="expression" dxfId="164" priority="453">
       <formula>OR(D7 &gt; D6 + 6, D7 &lt; D6 - 6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="expression" dxfId="38" priority="295">
+    <cfRule type="expression" dxfId="163" priority="439">
       <formula>ISBLANK(D11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="37" priority="312">
+    <cfRule type="expression" dxfId="162" priority="456">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:H22">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="E13:H13">
+    <cfRule type="expression" dxfId="161" priority="145" stopIfTrue="1">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:I22 B13:D22">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F13:I13 B13:D13">
+    <cfRule type="expression" dxfId="160" priority="148" stopIfTrue="1">
       <formula>NOT(ISBLANK($K13))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G22">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="greaterThan">
-      <formula>($H$25+$D$62)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
-      <formula>($H$25-$D$62)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThanOrEqual">
-      <formula>($H$25+$D$61)*$C$13/100</formula>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="159" priority="156" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C13/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="lessThan">
+      <formula>($H$25-$D$62)*$C13/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="158" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C13/100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="31" priority="310">
+    <cfRule type="expression" dxfId="156" priority="454">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H22">
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="expression" dxfId="155" priority="147" stopIfTrue="1">
       <formula>ISBLANK($F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="29" priority="294">
+    <cfRule type="expression" dxfId="154" priority="438">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I22">
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G13:I13">
+    <cfRule type="expression" dxfId="153" priority="146" stopIfTrue="1">
       <formula>ISBLANK($C13)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H22">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="lessThan">
       <formula>$H$25-$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="greaterThan">
       <formula>$H$25+$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="146" priority="151" operator="greaterThanOrEqual">
       <formula>$H$25+$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="145" priority="152" operator="lessThanOrEqual">
       <formula>$H$25-$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThanOrEqual">
-      <formula>($H$25-$D$61)*$C$13/100</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="22" priority="16">
+    <cfRule type="cellIs" dxfId="144" priority="159" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C13/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="152" priority="160">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="151" priority="153" operator="greaterThan">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="154" operator="lessThan">
       <formula>$D$63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="155" operator="lessThan">
       <formula>$D$64</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14:H14">
+    <cfRule type="expression" dxfId="143" priority="129" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:I14 B14:D14">
+    <cfRule type="expression" dxfId="142" priority="132" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="141" priority="140" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C14/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="141" operator="lessThan">
+      <formula>($H$25-$D$62)*$C14/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="142" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C14/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="138" priority="131" stopIfTrue="1">
+      <formula>ISBLANK($F14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:I14">
+    <cfRule type="expression" dxfId="137" priority="130" stopIfTrue="1">
+      <formula>ISBLANK($C14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="136" priority="133" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="134" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="135" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="136" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="143" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C14/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="131" priority="144">
+      <formula>LEN(TRIM(H14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="130" priority="137" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="138" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="139" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:H15">
+    <cfRule type="expression" dxfId="127" priority="113" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:I15 B15:D15">
+    <cfRule type="expression" dxfId="126" priority="116" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C15/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="lessThan">
+      <formula>($H$25-$D$62)*$C15/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C15/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="expression" dxfId="122" priority="115" stopIfTrue="1">
+      <formula>ISBLANK($F15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:I15">
+    <cfRule type="expression" dxfId="121" priority="114" stopIfTrue="1">
+      <formula>ISBLANK($C15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="120" priority="117" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="127" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C15/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="115" priority="128">
+      <formula>LEN(TRIM(H15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="114" priority="121" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="122" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="123" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:H16">
+    <cfRule type="expression" dxfId="111" priority="97" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:I16 B16:D16">
+    <cfRule type="expression" dxfId="110" priority="100" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="109" priority="108" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C16/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="lessThan">
+      <formula>($H$25-$D$62)*$C16/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="110" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C16/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="expression" dxfId="106" priority="99" stopIfTrue="1">
+      <formula>ISBLANK($F16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I16">
+    <cfRule type="expression" dxfId="105" priority="98" stopIfTrue="1">
+      <formula>ISBLANK($C16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="102" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="103" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="111" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C16/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="99" priority="112">
+      <formula>LEN(TRIM(H16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="98" priority="105" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="106" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="107" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:H17">
+    <cfRule type="expression" dxfId="95" priority="81" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:I17 B17:D17">
+    <cfRule type="expression" dxfId="94" priority="84" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="93" priority="92" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C17/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="lessThan">
+      <formula>($H$25-$D$62)*$C17/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="94" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C17/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="expression" dxfId="90" priority="83" stopIfTrue="1">
+      <formula>ISBLANK($F17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:I17">
+    <cfRule type="expression" dxfId="89" priority="82" stopIfTrue="1">
+      <formula>ISBLANK($C17)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="88" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="95" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C17/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="83" priority="96">
+      <formula>LEN(TRIM(H17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="82" priority="89" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="91" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:H18">
+    <cfRule type="expression" dxfId="79" priority="65" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:I18 B18:D18">
+    <cfRule type="expression" dxfId="78" priority="68" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C18/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="lessThan">
+      <formula>($H$25-$D$62)*$C18/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C18/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="expression" dxfId="74" priority="67" stopIfTrue="1">
+      <formula>ISBLANK($F18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:I18">
+    <cfRule type="expression" dxfId="73" priority="66" stopIfTrue="1">
+      <formula>ISBLANK($C18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="79" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C18/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="67" priority="80">
+      <formula>LEN(TRIM(H18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="66" priority="73" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="74" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="75" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:H19">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:I19 B19:D19">
+    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K19))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C19/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="lessThan">
+      <formula>($H$25-$D$62)*$C19/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C19/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="expression" dxfId="58" priority="51" stopIfTrue="1">
+      <formula>ISBLANK($F19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:I19">
+    <cfRule type="expression" dxfId="57" priority="50" stopIfTrue="1">
+      <formula>ISBLANK($C19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="55" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C19/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="51" priority="64">
+      <formula>LEN(TRIM(H19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="58" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:H20">
+    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:I20 B20:D20">
+    <cfRule type="expression" dxfId="46" priority="36" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C20/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+      <formula>($H$25-$D$62)*$C20/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C20/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="expression" dxfId="42" priority="35" stopIfTrue="1">
+      <formula>ISBLANK($F20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:I20">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+      <formula>ISBLANK($C20)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C20/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="35" priority="48">
+      <formula>LEN(TRIM(H20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:H21">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:I21 B21:D21">
+    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C21/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+      <formula>($H$25-$D$62)*$C21/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C21/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+      <formula>ISBLANK($F21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:I21">
+    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
+      <formula>ISBLANK($C21)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C21/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="19" priority="32">
+      <formula>LEN(TRIM(H21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:H22">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+      <formula>$D$9="bulk"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:I22 B22:D22">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+      <formula>NOT(ISBLANK($K22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
+      <formula>($H$25+$D$62)*$C22/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>($H$25-$D$62)*$C22/100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThanOrEqual">
+      <formula>($H$25+$D$61)*$C22/100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+      <formula>ISBLANK($F22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:I22">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+      <formula>ISBLANK($C22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+      <formula>$H$25-$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+      <formula>$H$25+$D$62</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+      <formula>$H$25+$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="lessThanOrEqual">
+      <formula>$H$25-$D$61</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="lessThanOrEqual">
+      <formula>($H$25-$D$61)*$C22/100</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="3" priority="16">
+      <formula>LEN(TRIM(H22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
+      <formula>$D$63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+      <formula>$D$64</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select drop down list or type &quot;standard&quot; or &quot;bulk&quot;" sqref="D9:I9">
       <formula1>$D$59:$D$60</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28">
       <formula1>-50</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48">
       <formula1>0.1</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:I51 I32:I37 C29:C30 E29:E30 G29:G30 I29:I30 I44:I46 E36:E38">
       <formula1>OR(UPPER(C29)="X", LOWER(C29)="x")</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="YYYY-MM-DD format" sqref="D7:I7" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="hh:mm – 24 hour clock, Yukon time" sqref="D10:I11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="YYYY-MM-DD format" sqref="D7:I7"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6878,26 +11187,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -6938,7 +11247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" s="5"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -6948,7 +11257,7 @@
       <c r="I3" s="11"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4" s="5"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -6958,7 +11267,7 @@
       <c r="I4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -6968,7 +11277,7 @@
       <c r="I5" s="11"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -6978,7 +11287,7 @@
       <c r="I6" s="11"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C7" s="5"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -6988,7 +11297,7 @@
       <c r="I7" s="11"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" s="5"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -6998,7 +11307,7 @@
       <c r="I8" s="11"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C9" s="5"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -7008,7 +11317,7 @@
       <c r="I9" s="11"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C10" s="5"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -7018,7 +11327,7 @@
       <c r="I10" s="11"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -7028,7 +11337,7 @@
       <c r="I11" s="11"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -7038,7 +11347,7 @@
       <c r="I12" s="11"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C13" s="5"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -7048,7 +11357,7 @@
       <c r="I13" s="11"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -7058,7 +11367,7 @@
       <c r="I14" s="11"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -7068,7 +11377,7 @@
       <c r="I15" s="11"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -7078,7 +11387,7 @@
       <c r="I16" s="11"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -7088,7 +11397,7 @@
       <c r="I17" s="11"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -7098,7 +11407,7 @@
       <c r="I18" s="11"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -7108,7 +11417,7 @@
       <c r="I19" s="11"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -7118,7 +11427,7 @@
       <c r="I20" s="11"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -7128,7 +11437,7 @@
       <c r="I21" s="11"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C22" s="5"/>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
@@ -7138,7 +11447,7 @@
       <c r="I22" s="11"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
@@ -7148,7 +11457,7 @@
       <c r="I23" s="11"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C24" s="3"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
@@ -7158,7 +11467,7 @@
       <c r="I24" s="11"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
@@ -7168,7 +11477,7 @@
       <c r="I25" s="11"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C26" s="3"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
@@ -7178,7 +11487,7 @@
       <c r="I26" s="11"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C27" s="3"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
@@ -7188,7 +11497,7 @@
       <c r="I27" s="11"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C28" s="3"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
@@ -7198,7 +11507,7 @@
       <c r="I28" s="11"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C29" s="3"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
@@ -7208,7 +11517,7 @@
       <c r="I29" s="11"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C30" s="3"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
@@ -7218,7 +11527,7 @@
       <c r="I30" s="11"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C31" s="3"/>
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
@@ -7228,7 +11537,7 @@
       <c r="I31" s="11"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C32" s="3"/>
       <c r="D32" s="12"/>
       <c r="E32" s="11"/>
@@ -7238,7 +11547,7 @@
       <c r="I32" s="11"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="3"/>
       <c r="D33" s="12"/>
       <c r="E33" s="11"/>
@@ -7248,7 +11557,7 @@
       <c r="I33" s="11"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="3"/>
       <c r="D34" s="12"/>
       <c r="E34" s="11"/>
@@ -7258,7 +11567,7 @@
       <c r="I34" s="12"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
       <c r="D35" s="12"/>
       <c r="E35" s="11"/>
@@ -7268,7 +11577,7 @@
       <c r="I35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="3"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -7278,7 +11587,7 @@
       <c r="I36" s="12"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -7287,127 +11596,127 @@
       <c r="I37" s="12"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K40" s="12"/>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K46" s="12"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GAGG2Sqsp8YG2XvKTukeDkEeaGM6yd0qYH11fyVXzNMHNyguqk3yd5J8DgzUdx8Jp8ocemg2K5tLzNH9CBJ7Ug==" saltValue="WpwHXy8mQW5gzr8vbbAv0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="354" priority="19">
       <formula>$K$3="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:K4">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="353" priority="18">
       <formula>$K$4="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:K5">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="352" priority="17">
       <formula>$K$5="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:K6">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="351" priority="16">
       <formula>$K$6="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:K7">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="350" priority="15">
       <formula>$K$7="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:K8">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="349" priority="14">
       <formula>$K$8="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:K9">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="348" priority="13">
       <formula>$K$9="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:K10">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="347" priority="12">
       <formula>$K$10="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:K11">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="346" priority="11">
       <formula>$K$11="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:K12">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="345" priority="10">
       <formula>$K$12="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:K13">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="344" priority="9">
       <formula>$K$13="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:K14">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="343" priority="8">
       <formula>$K$14="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:K15">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="342" priority="7">
       <formula>$K$15="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:K16">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="341" priority="6">
       <formula>$K$16="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:K17">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="340" priority="5">
       <formula>$K$17="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:K18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="339" priority="4">
       <formula>$K$18="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:K19">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="338" priority="3">
       <formula>$K$19="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:K20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="337" priority="2">
       <formula>$K$20="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="336" priority="1">
       <formula>$K$21="yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/snow_survey/SnowSurveyTemplate.xlsx
+++ b/inst/snow_survey/SnowSurveyTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estewart\Documents\R\Projects\YGwater\inst\snow_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtdelapl\Documents\YGwater\inst\snow_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6BE4C-2364-48DB-A927-59414433945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29627D-AB32-4213-B07F-5F126E555A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="18105" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,15 +190,6 @@
     <t>QA/QC-ed</t>
   </si>
   <si>
-    <t>Tare</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
     <r>
       <t>Weather at time of sampling</t>
     </r>
@@ -391,6 +382,15 @@
   </si>
   <si>
     <t>no sample</t>
+  </si>
+  <si>
+    <t>SWE (cm)</t>
+  </si>
+  <si>
+    <t>Weight (cm)</t>
+  </si>
+  <si>
+    <t>Tare (cm)</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1188,9 +1188,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1346,6 +1343,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1368,22 +1374,25 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,6 +1431,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1455,28 +1473,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1525,6 +1543,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1552,6 +1574,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,6 +1585,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1643,289 +1671,15 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2294,6 +2048,249 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3621,21 +3618,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
@@ -3658,189 +3649,189 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="151" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="153"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="154" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="159"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="168" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="160" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="161"/>
-      <c r="L9" s="162"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="121" t="s">
+      <c r="B10" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="124"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="124" t="s">
+      <c r="B11" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
@@ -3855,13 +3846,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>6</v>
@@ -3870,19 +3861,19 @@
         <v>29</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>1</v>
       </c>
       <c r="C13" s="29"/>
@@ -3897,18 +3888,18 @@
         <f t="shared" ref="H13:H22" si="0">IFERROR(IF($D$9="standard", (G13/C13)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I13" s="45" t="str">
+      <c r="I13" s="44" t="str">
         <f>IFERROR(D13/C13*100, "")</f>
         <v/>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>2</v>
       </c>
       <c r="C14" s="29"/>
@@ -3920,21 +3911,21 @@
         <v/>
       </c>
       <c r="H14" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(IF($D$9="standard", (G14/C14)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I14" s="45" t="str">
+      <c r="I14" s="44" t="str">
         <f t="shared" ref="I14:I22" si="2">IFERROR(D14/C14*100, "")</f>
         <v/>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="49"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>3</v>
       </c>
       <c r="C15" s="29"/>
@@ -3949,18 +3940,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="45" t="str">
+      <c r="I15" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="49"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <v>4</v>
       </c>
       <c r="C16" s="29"/>
@@ -3975,19 +3966,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="45" t="str">
+      <c r="I16" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="49"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="15"/>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="44">
+      <c r="B17" s="43">
         <v>5</v>
       </c>
       <c r="C17" s="29"/>
@@ -4002,18 +3993,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="45" t="str">
+      <c r="I17" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="49"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="44">
+      <c r="B18" s="43">
         <v>6</v>
       </c>
       <c r="C18" s="29"/>
@@ -4028,18 +4019,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="45" t="str">
+      <c r="I18" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="49"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="44">
+      <c r="B19" s="43">
         <v>7</v>
       </c>
       <c r="C19" s="29"/>
@@ -4054,18 +4045,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="45" t="str">
+      <c r="I19" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="49"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>8</v>
       </c>
       <c r="C20" s="29"/>
@@ -4080,18 +4071,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="45" t="str">
+      <c r="I20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="49"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <v>9</v>
       </c>
       <c r="C21" s="29"/>
@@ -4106,18 +4097,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="45" t="str">
+      <c r="I21" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="49"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <v>10</v>
       </c>
       <c r="C22" s="29"/>
@@ -4132,89 +4123,89 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="45" t="str">
+      <c r="I22" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35" t="str">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34" t="str">
         <f>IF(OR(ISBLANK(E23),ISBLANK(F23)),"",IF($D$9="bulk",F23-E23,""))</f>
         <v/>
       </c>
-      <c r="H23" s="36" t="str">
+      <c r="H23" s="35" t="str">
         <f>IFERROR(IF($D$9="bulk", G23/(SUM(C13:C22))*100, ""), "")</f>
         <v/>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="131"/>
+      <c r="K23" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="137"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36" t="str">
         <f>IF($D$9="standard",SUMIFS(G13:G22, K13:K22, ""), "")</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="39"/>
+        <v/>
+      </c>
+      <c r="H24" s="38"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="132"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="40" t="str">
+      <c r="C25" s="39" t="str">
         <f>IFERROR(AVERAGEIFS(C13:C22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="D25" s="40" t="str">
+      <c r="D25" s="39" t="str">
         <f>IFERROR(AVERAGEIFS(D13:D22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40" t="str">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39" t="str">
         <f>IFERROR(IF($D$9="Standard", AVERAGEIFS(G13:G22, K13:K22, ""), IF(D9="Bulk",G23/COUNT(D13:D22),"")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="42" t="str">
+      <c r="H25" s="41" t="str">
         <f>IFERROR(IF($D$9="standard", AVERAGEIFS(H13:H22, K13:K22, ""), IF($D$9="Bulk",H23,"")), "")</f>
         <v/>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="56"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="17"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -4224,13 +4215,13 @@
     </row>
     <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
@@ -4244,19 +4235,19 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
+      <c r="B27" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="17"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -4266,19 +4257,19 @@
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
+      <c r="B28" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="28"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="17"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -4288,25 +4279,25 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="62" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="22"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
       <c r="M29" s="17"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -4316,25 +4307,25 @@
     </row>
     <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66" t="s">
+      <c r="G30" s="64"/>
+      <c r="H30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="66"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
       <c r="M30" s="17"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -4344,19 +4335,19 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
+      <c r="B31" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="17"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -4366,15 +4357,15 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="28"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -4388,15 +4379,15 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="28"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -4410,15 +4401,15 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
       <c r="I34" s="28"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -4432,15 +4423,15 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="28"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -4454,17 +4445,17 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="118" t="s">
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
       <c r="I36" s="28"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
@@ -4478,18 +4469,18 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="137" t="s">
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="69"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -4502,18 +4493,18 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="89"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="71"/>
+      <c r="B38" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="149"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="70"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
@@ -4526,16 +4517,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
+      <c r="B39" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="116"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -4548,14 +4539,14 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="104"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -4568,14 +4559,14 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="104"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -4588,14 +4579,14 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="107"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -4608,16 +4599,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="144"/>
+      <c r="B43" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="152"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -4630,15 +4621,15 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="115"/>
+      <c r="B44" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -4652,15 +4643,15 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="115"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -4674,15 +4665,15 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="115"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -4696,16 +4687,16 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="69"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -4718,16 +4709,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88"/>
+      <c r="B48" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -4735,15 +4726,15 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
+      <c r="B49" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -4752,15 +4743,15 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
+      <c r="B50" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -4769,15 +4760,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
-      <c r="B51" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
+      <c r="B51" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -4786,16 +4777,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="101"/>
+      <c r="B52" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -4803,14 +4794,14 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -4818,14 +4809,14 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -4833,14 +4824,14 @@
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="101"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -4863,11 +4854,11 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="175"/>
-      <c r="D57" s="176"/>
+      <c r="B57" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -4880,11 +4871,11 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="180" t="s">
+      <c r="B58" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="76"/>
+      <c r="D58" s="78" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="24"/>
@@ -4899,11 +4890,11 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="177" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="179"/>
-      <c r="D59" s="181" t="s">
+      <c r="B59" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="92"/>
+      <c r="D59" s="79" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="24"/>
@@ -4918,12 +4909,12 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="182" t="s">
-        <v>89</v>
+      <c r="B60" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="153"/>
+      <c r="D60" s="80" t="s">
+        <v>86</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -4937,11 +4928,11 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="177" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="178"/>
-      <c r="D61" s="74">
+      <c r="B61" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="93"/>
+      <c r="D61" s="73">
         <v>4</v>
       </c>
       <c r="E61" s="24"/>
@@ -4956,11 +4947,11 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="73">
+      <c r="B62" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="95"/>
+      <c r="D62" s="72">
         <v>5</v>
       </c>
       <c r="E62" s="24"/>
@@ -4975,11 +4966,11 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="72">
+      <c r="B63" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="82"/>
+      <c r="D63" s="71">
         <v>50</v>
       </c>
       <c r="E63" s="24"/>
@@ -4994,11 +4985,11 @@
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="75">
+      <c r="B64" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="D64" s="74">
         <v>66</v>
       </c>
       <c r="E64" s="24"/>
@@ -5096,7 +5087,6 @@
       <c r="B78" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p4Z1y41EWhKXxqpUpGaD/Uyiwm0NuWd8PXtRmG+8JL+ppYQxZKpKz6/jp4idVlAESd+X9BSLv7MyEO+vTUGLRA==" saltValue="Ezrpf1HSnzI06e8atzOeBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B2:L3"/>
@@ -5127,6 +5117,13 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="B43:I43"/>
     <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B27:I27"/>
@@ -5135,14 +5132,6 @@
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="B64:C64"/>
@@ -5158,103 +5147,104 @@
     <mergeCell ref="B51:H51"/>
     <mergeCell ref="B40:I42"/>
     <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B34:H34"/>
   </mergeCells>
-  <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="1" priority="1641">
-      <formula>$D$9="standard"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="C13:H22">
+    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
       <formula>$D$9="no sample"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C23:H23">
+    <cfRule type="expression" dxfId="65" priority="1">
+      <formula>$D$9="no sample"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="1641">
+      <formula>$D$9="standard"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="23" priority="1624">
+    <cfRule type="expression" dxfId="63" priority="1624">
       <formula>ISBLANK($D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1625">
+    <cfRule type="expression" dxfId="62" priority="1625">
       <formula>OR(D7 &gt; D6 + 6, D7 &lt; D6 - 6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="21" priority="1642">
+    <cfRule type="expression" dxfId="61" priority="1642">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:H22">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:I22 C13:D22">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="6" stopIfTrue="1">
       <formula>NOT(ISBLANK($K13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G22">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="greaterThan">
       <formula>($H$25+$D$62)*$C13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="lessThan">
       <formula>($H$25-$D$62)*$C13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="17" operator="lessThanOrEqual">
       <formula>($H$25-$D$61)*$C13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="18" operator="greaterThanOrEqual">
       <formula>($H$25+$D$61)*$C13/100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="14" priority="1637">
+    <cfRule type="expression" dxfId="54" priority="1637">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H22">
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="5" stopIfTrue="1">
       <formula>ISBLANK($F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="12" priority="1500">
+    <cfRule type="expression" dxfId="52" priority="1500">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I22">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="4" stopIfTrue="1">
       <formula>ISBLANK($C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H22">
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
+    <cfRule type="containsBlanks" dxfId="50" priority="7">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="lessThan">
       <formula>$H$25-$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="greaterThan">
       <formula>$H$25+$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="greaterThanOrEqual">
       <formula>$H$25+$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="lessThanOrEqual">
       <formula>$H$25-$D$61</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="greaterThan">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="lessThan">
       <formula>$D$63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="lessThan">
       <formula>$D$64</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:H22">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>$D$9="no sample"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -5289,21 +5279,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" customWidth="1"/>
@@ -5326,189 +5310,189 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="151" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="153"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="154" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="159"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="168" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="160" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="161"/>
-      <c r="L9" s="162"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="121" t="s">
+      <c r="B10" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="124"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="124" t="s">
+      <c r="B11" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="63" x14ac:dyDescent="0.25">
@@ -5519,19 +5503,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>6</v>
@@ -5540,18 +5524,18 @@
         <v>29</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="43">
         <v>1</v>
       </c>
       <c r="B13" s="29"/>
@@ -5567,17 +5551,17 @@
         <f t="shared" ref="H13:H22" si="0">IFERROR(IF($D$9="standard", (G13/C13)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I13" s="45" t="str">
+      <c r="I13" s="44" t="str">
         <f>IFERROR(D13/C13*100, "")</f>
         <v/>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <v>2</v>
       </c>
       <c r="B14" s="29"/>
@@ -5593,17 +5577,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="45" t="str">
+      <c r="I14" s="44" t="str">
         <f t="shared" ref="I14:I22" si="2">IFERROR(D14/C14*100, "")</f>
         <v/>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="49"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>3</v>
       </c>
       <c r="B15" s="29"/>
@@ -5619,17 +5603,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="45" t="str">
+      <c r="I15" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="49"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="43">
         <v>4</v>
       </c>
       <c r="B16" s="29"/>
@@ -5645,18 +5629,18 @@
         <f>IFERROR(IF($D$9="standard", (G16/C16)*100, ""), "")</f>
         <v/>
       </c>
-      <c r="I16" s="45" t="str">
+      <c r="I16" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="49"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="15"/>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="43">
         <v>5</v>
       </c>
       <c r="B17" s="29"/>
@@ -5672,17 +5656,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="45" t="str">
+      <c r="I17" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="49"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="43">
         <v>6</v>
       </c>
       <c r="B18" s="29"/>
@@ -5698,17 +5682,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="45" t="str">
+      <c r="I18" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="49"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="43">
         <v>7</v>
       </c>
       <c r="B19" s="29"/>
@@ -5724,17 +5708,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="45" t="str">
+      <c r="I19" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="49"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
+      <c r="A20" s="43">
         <v>8</v>
       </c>
       <c r="B20" s="29"/>
@@ -5750,17 +5734,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="45" t="str">
+      <c r="I20" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="49"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+      <c r="A21" s="43">
         <v>9</v>
       </c>
       <c r="B21" s="29"/>
@@ -5776,17 +5760,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="45" t="str">
+      <c r="I21" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="49"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54">
+      <c r="A22" s="53">
         <v>10</v>
       </c>
       <c r="B22" s="29"/>
@@ -5802,89 +5786,89 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="45" t="str">
+      <c r="I22" s="44" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35" t="str">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34" t="str">
         <f>IF(OR(ISBLANK(E23),ISBLANK(F23)),"",IF($D$9="bulk",F23-E23,""))</f>
         <v/>
       </c>
-      <c r="H23" s="36" t="str">
+      <c r="H23" s="35" t="str">
         <f>IFERROR(IF($D$9="bulk", G23/(SUM(C13:C22))*100, ""), "")</f>
         <v/>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="131"/>
+      <c r="K23" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="137"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36" t="str">
         <f>IF($D$9="standard",SUMIFS(G13:G22, K13:K22, ""), "")</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="39"/>
+        <v/>
+      </c>
+      <c r="H24" s="38"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="132"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="40" t="str">
+      <c r="C25" s="39" t="str">
         <f>IFERROR(AVERAGEIFS(C13:C22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="D25" s="40" t="str">
+      <c r="D25" s="39" t="str">
         <f>IFERROR(AVERAGEIFS(D13:D22, K13:K22, ""), "")</f>
         <v/>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40" t="str">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39" t="str">
         <f>IFERROR(IF($D$9="Standard", AVERAGEIFS(G13:G22, K13:K22, ""), IF(D9="Bulk",G23/COUNT(D13:D22),"")),"")</f>
         <v/>
       </c>
-      <c r="H25" s="42" t="str">
+      <c r="H25" s="41" t="str">
         <f>IFERROR(IF($D$9="standard", AVERAGEIFS(H13:H22, K13:K22, ""), IF($D$9="Bulk",H23,"")), "")</f>
         <v/>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="56"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="17"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -5914,16 +5898,16 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
+      <c r="B27" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="17"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -5936,15 +5920,15 @@
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
+      <c r="B28" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="28"/>
       <c r="J28" s="17"/>
       <c r="K28" s="15"/>
@@ -5958,19 +5942,19 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63" t="s">
+      <c r="G29" s="61"/>
+      <c r="H29" s="62" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="28"/>
@@ -5986,22 +5970,22 @@
     </row>
     <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66" t="s">
+      <c r="G30" s="64"/>
+      <c r="H30" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="66"/>
       <c r="J30" s="17"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -6014,16 +5998,16 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
+      <c r="B31" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="17"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -6036,15 +6020,15 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="28"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -6058,15 +6042,15 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="28"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -6080,15 +6064,15 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
       <c r="I34" s="28"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -6102,15 +6086,15 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="28"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -6124,17 +6108,17 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="118" t="s">
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
       <c r="I36" s="28"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -6148,18 +6132,18 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="137" t="s">
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="69"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -6172,18 +6156,18 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="89"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="71"/>
+      <c r="B38" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="149"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="70"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -6196,16 +6180,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="110"/>
+      <c r="B39" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="116"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -6218,14 +6202,14 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="104"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -6238,14 +6222,14 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="104"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -6258,14 +6242,14 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="107"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -6278,16 +6262,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="144"/>
+      <c r="B43" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="152"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -6300,15 +6284,15 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="115"/>
+      <c r="B44" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -6322,15 +6306,15 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="113" t="s">
+      <c r="B45" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="115"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -6344,15 +6328,15 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="115"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -6366,16 +6350,16 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="69"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -6388,16 +6372,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88"/>
+      <c r="B48" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -6405,15 +6389,15 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
+      <c r="B49" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -6422,15 +6406,15 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
+      <c r="B50" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -6439,15 +6423,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
-      <c r="B51" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
+      <c r="B51" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -6456,16 +6440,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="101"/>
+      <c r="B52" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -6473,14 +6457,14 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -6488,14 +6472,14 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -6503,14 +6487,14 @@
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="101"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -6548,11 +6532,11 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="88"/>
+      <c r="B58" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="106"/>
+      <c r="D58" s="107"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -6565,11 +6549,11 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="72" t="s">
+      <c r="B59" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="149"/>
+      <c r="D59" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="24"/>
@@ -6584,11 +6568,11 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="73" t="s">
+      <c r="B60" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="153"/>
+      <c r="D60" s="72" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="24"/>
@@ -6603,11 +6587,11 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="74">
+      <c r="B61" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="82"/>
+      <c r="D61" s="73">
         <v>4</v>
       </c>
       <c r="E61" s="24"/>
@@ -6622,11 +6606,11 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="73">
+      <c r="B62" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="95"/>
+      <c r="D62" s="72">
         <v>5</v>
       </c>
       <c r="E62" s="24"/>
@@ -6641,11 +6625,11 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="72">
+      <c r="B63" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="82"/>
+      <c r="D63" s="71">
         <v>50</v>
       </c>
       <c r="E63" s="24"/>
@@ -6660,11 +6644,11 @@
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="75">
+      <c r="B64" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="D64" s="74">
         <v>66</v>
       </c>
       <c r="E64" s="24"/>
@@ -6762,7 +6746,6 @@
       <c r="B78" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zBBF0Z6GSW0g2pYctVQclDcfJIbvagbGbWtBjy60taicOVcwmpHv2ci9JA5dRpkh0Oge0XTeW3nHhEOtpKAO7Q==" saltValue="BD8J6NW8jHKgwDz/tOu8jg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B4:C4"/>
@@ -6826,102 +6809,102 @@
     <mergeCell ref="B60:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:H23">
-    <cfRule type="expression" dxfId="66" priority="455">
+    <cfRule type="expression" dxfId="42" priority="455">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="65" priority="440">
+    <cfRule type="expression" dxfId="41" priority="440">
       <formula>D11 &lt; D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:I7">
-    <cfRule type="expression" dxfId="64" priority="452">
+    <cfRule type="expression" dxfId="40" priority="452">
       <formula>ISBLANK($D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="453">
+    <cfRule type="expression" dxfId="39" priority="453">
       <formula>OR(D7 &gt; D6 + 6, D7 &lt; D6 - 6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="expression" dxfId="62" priority="439">
+    <cfRule type="expression" dxfId="38" priority="439">
       <formula>ISBLANK(D11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="61" priority="456">
+    <cfRule type="expression" dxfId="37" priority="456">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:H22">
-    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:I22 B13:D22">
-    <cfRule type="expression" dxfId="59" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>NOT(ISBLANK($K13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G22">
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="greaterThan">
       <formula>($H$25+$D$62)*$C13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="lessThan">
       <formula>($H$25-$D$62)*$C13/100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThanOrEqual">
       <formula>($H$25+$D$61)*$C13/100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="55" priority="454">
+    <cfRule type="expression" dxfId="31" priority="454">
       <formula>$D$9="standard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H22">
-    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>ISBLANK($F13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="53" priority="438">
+    <cfRule type="expression" dxfId="29" priority="438">
       <formula>$D$9="bulk"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I22">
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>ISBLANK($C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H22">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
       <formula>$H$25-$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
       <formula>$H$25+$D$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThanOrEqual">
       <formula>$H$25+$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThanOrEqual">
       <formula>$H$25-$D$61</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThanOrEqual">
       <formula>($H$25-$D$61)*$C13/100</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="46" priority="16">
+    <cfRule type="containsBlanks" dxfId="22" priority="16">
       <formula>LEN(TRIM(H13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="lessThan">
       <formula>$D$63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThan">
       <formula>$D$64</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6993,10 +6976,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>47</v>
@@ -7008,10 +6991,10 @@
         <v>49</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7393,97 +7376,97 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GAGG2Sqsp8YG2XvKTukeDkEeaGM6yd0qYH11fyVXzNMHNyguqk3yd5J8DgzUdx8Jp8ocemg2K5tLzNH9CBJ7Ug==" saltValue="WpwHXy8mQW5gzr8vbbAv0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$K$3="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:K4">
-    <cfRule type="expression" dxfId="41" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$K$4="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:K5">
-    <cfRule type="expression" dxfId="40" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$K$5="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:K6">
-    <cfRule type="expression" dxfId="39" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$K$6="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:K7">
-    <cfRule type="expression" dxfId="38" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$K$7="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:K8">
-    <cfRule type="expression" dxfId="37" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$K$8="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:K9">
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$K$9="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:K10">
-    <cfRule type="expression" dxfId="35" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$K$10="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:K11">
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$K$11="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:K12">
-    <cfRule type="expression" dxfId="33" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$K$12="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:K13">
-    <cfRule type="expression" dxfId="32" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$K$13="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:K14">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$K$14="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:K15">
-    <cfRule type="expression" dxfId="30" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$K$15="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:K16">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$K$16="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:K17">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$K$17="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:K18">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$K$18="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:K19">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$K$19="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:K20">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$K$20="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K21">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$K$21="yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/snow_survey/SnowSurveyTemplate.xlsx
+++ b/inst/snow_survey/SnowSurveyTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtdelapl\Documents\YGwater\inst\snow_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29627D-AB32-4213-B07F-5F126E555A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25784D4-8474-49D2-ACA0-0EBC9EFC15AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,16 +1352,235 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1390,9 +1609,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,24 +1638,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1472,204 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3618,7 +3618,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -3649,189 +3649,189 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="160" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="161"/>
-      <c r="L5" s="162"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="163" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="165"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="166" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="168"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="177" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="169" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="170"/>
-      <c r="L9" s="171"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="127" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="130" t="s">
+      <c r="C11" s="148"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
@@ -4151,10 +4151,10 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="135" t="s">
+      <c r="K23" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="137"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4173,8 +4173,8 @@
       <c r="H24" s="38"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="138"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="152"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4235,16 +4235,16 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
       <c r="J27" s="22"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
@@ -4257,15 +4257,15 @@
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="126"/>
       <c r="I28" s="28"/>
       <c r="J28" s="22"/>
       <c r="K28" s="59"/>
@@ -4335,16 +4335,16 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
       <c r="J31" s="22"/>
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
@@ -4357,15 +4357,15 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
       <c r="I32" s="28"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -4379,15 +4379,15 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="119"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
       <c r="I33" s="28"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -4401,15 +4401,15 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
       <c r="I34" s="28"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -4423,15 +4423,15 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
       <c r="I35" s="28"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -4445,17 +4445,17 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="61"/>
-      <c r="F36" s="122" t="s">
+      <c r="F36" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
       <c r="I36" s="28"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
@@ -4469,17 +4469,17 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
       <c r="E37" s="67"/>
-      <c r="F37" s="144" t="s">
+      <c r="F37" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
       <c r="I37" s="68"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -4493,17 +4493,17 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="149"/>
-      <c r="H38" s="82"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
       <c r="I38" s="70"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="180"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -4539,14 +4539,14 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="110"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="174"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -4559,14 +4559,14 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="110"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="174"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -4579,14 +4579,14 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="113"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="177"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -4599,16 +4599,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="152"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="135"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -4621,15 +4621,15 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="118"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -4643,15 +4643,15 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="118"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -4665,15 +4665,15 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="118"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -4687,15 +4687,15 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
-      <c r="B47" s="140" t="s">
+      <c r="B47" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="121"/>
       <c r="I47" s="68"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -4709,16 +4709,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="107"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="132"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -4726,15 +4726,15 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -4760,15 +4760,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="158"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="104"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -4794,14 +4794,14 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="168"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -4809,14 +4809,14 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="168"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -4824,14 +4824,14 @@
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="101"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="171"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -4854,11 +4854,11 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="91" t="s">
+      <c r="B59" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="92"/>
+      <c r="C59" s="163"/>
       <c r="D59" s="79" t="s">
         <v>38</v>
       </c>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="153"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="80" t="s">
         <v>86</v>
       </c>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="93"/>
+      <c r="C61" s="164"/>
       <c r="D61" s="73">
         <v>4</v>
       </c>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="95"/>
+      <c r="C62" s="165"/>
       <c r="D62" s="72">
         <v>5</v>
       </c>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="82"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="71">
         <v>50</v>
       </c>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="156"/>
       <c r="D64" s="74">
         <v>66</v>
       </c>
@@ -5087,7 +5087,52 @@
       <c r="B78" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="JlmkU2A/qCOqNtuxGXe+SVKYclyFs2igpOrvqEJgmC1cSq3wMFELsRLHn11yJqGHqT8B8B9tnhZ8vbhMRFGlaA==" saltValue="2am05ntsdCUtj9sTWLXQEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B53:I55"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="J5:L5"/>
@@ -5104,50 +5149,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B53:I55"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B40:I42"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B34:H34"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:H22">
     <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
@@ -5279,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,189 +5311,189 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="160" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="161"/>
-      <c r="L5" s="162"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="163" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="165"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="166" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="168"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="177" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="113"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="169" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="170"/>
-      <c r="L9" s="171"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="127" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="181"/>
       <c r="E11" s="181"/>
       <c r="F11" s="181"/>
       <c r="G11" s="181"/>
       <c r="H11" s="181"/>
       <c r="I11" s="181"/>
-      <c r="J11" s="130" t="s">
+      <c r="J11" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="63" x14ac:dyDescent="0.25">
@@ -5814,10 +5815,10 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="135" t="s">
+      <c r="K23" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="137"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -5836,8 +5837,8 @@
       <c r="H24" s="38"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="138"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="152"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5898,16 +5899,16 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
       <c r="J27" s="17"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -5920,15 +5921,15 @@
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="126"/>
       <c r="I28" s="28"/>
       <c r="J28" s="17"/>
       <c r="K28" s="15"/>
@@ -5998,16 +5999,16 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
       <c r="J31" s="17"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -6020,15 +6021,15 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
       <c r="I32" s="28"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -6042,15 +6043,15 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="119"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
       <c r="I33" s="28"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -6064,15 +6065,15 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
       <c r="I34" s="28"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -6086,15 +6087,15 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
       <c r="I35" s="28"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -6108,17 +6109,17 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="61"/>
-      <c r="F36" s="122" t="s">
+      <c r="F36" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
       <c r="I36" s="28"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -6132,17 +6133,17 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
       <c r="E37" s="67"/>
-      <c r="F37" s="144" t="s">
+      <c r="F37" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
       <c r="I37" s="68"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -6156,17 +6157,17 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="149"/>
-      <c r="H38" s="82"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
       <c r="I38" s="70"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6180,16 +6181,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="180"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -6202,14 +6203,14 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="110"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="174"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -6222,14 +6223,14 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="110"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="174"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -6242,14 +6243,14 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="113"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="177"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -6262,16 +6263,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="152"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="135"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -6284,15 +6285,15 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="118"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -6306,15 +6307,15 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="118"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -6328,15 +6329,15 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="118"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -6350,15 +6351,15 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
-      <c r="B47" s="140" t="s">
+      <c r="B47" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="121"/>
       <c r="I47" s="68"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -6372,16 +6373,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="107"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="132"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -6389,15 +6390,15 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -6406,15 +6407,15 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -6423,15 +6424,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="158"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -6440,16 +6441,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="104"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="110"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -6457,14 +6458,14 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="98"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="168"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -6472,14 +6473,14 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="168"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -6487,14 +6488,14 @@
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="101"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="171"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -6532,11 +6533,11 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="105" t="s">
+      <c r="B58" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="106"/>
-      <c r="D58" s="107"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="132"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -6549,10 +6550,10 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="149"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="71" t="s">
         <v>39</v>
       </c>
@@ -6568,10 +6569,10 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="153"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="72" t="s">
         <v>38</v>
       </c>
@@ -6587,10 +6588,10 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="82"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="73">
         <v>4</v>
       </c>
@@ -6606,10 +6607,10 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="95"/>
+      <c r="C62" s="165"/>
       <c r="D62" s="72">
         <v>5</v>
       </c>
@@ -6625,10 +6626,10 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="82"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="71">
         <v>50</v>
       </c>
@@ -6644,10 +6645,10 @@
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="156"/>
       <c r="D64" s="74">
         <v>66</v>
       </c>
@@ -6746,32 +6747,30 @@
       <c r="B78" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="oJxLpNuUjx9MFBlVxObjL9zXLqa74Z223FiZtLoMDG9RPIA1ZvAg5vzF9kSBuHSxVCPouGEdCaraarVN8qu93g==" saltValue="WlTY9IqluZOZyB/V3WUPtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:H49"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="K23:K24"/>
@@ -6785,28 +6784,31 @@
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:H23">
     <cfRule type="expression" dxfId="42" priority="455">

--- a/inst/snow_survey/SnowSurveyTemplate.xlsx
+++ b/inst/snow_survey/SnowSurveyTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtdelapl\Documents\YGwater\inst\snow_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25784D4-8474-49D2-ACA0-0EBC9EFC15AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4F92E-B3B1-4507-9E2D-306EE8FE5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,9 +1352,240 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1412,12 +1643,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1432,15 +1657,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,222 +1670,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3618,8 +3618,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,189 +3649,189 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="89" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="92" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="95" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="111" t="s">
+      <c r="C8" s="124"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="98" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="141" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="144" t="s">
+      <c r="C11" s="134"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
@@ -4151,10 +4151,10 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="149" t="s">
+      <c r="K23" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="151"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4166,15 +4166,15 @@
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="36" t="str">
+      <c r="G24" s="36">
         <f>IF($D$9="standard",SUMIFS(G13:G22, K13:K22, ""), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="152"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4235,16 +4235,16 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="22"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
@@ -4257,15 +4257,15 @@
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="126"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="28"/>
       <c r="J28" s="22"/>
       <c r="K28" s="59"/>
@@ -4335,16 +4335,16 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="22"/>
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
@@ -4357,15 +4357,15 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="28"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
@@ -4379,15 +4379,15 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="28"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
@@ -4401,15 +4401,15 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
       <c r="I34" s="28"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -4423,15 +4423,15 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="28"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
@@ -4445,17 +4445,17 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="61"/>
-      <c r="F36" s="138" t="s">
+      <c r="F36" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
       <c r="I36" s="28"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
@@ -4469,17 +4469,17 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
       <c r="E37" s="67"/>
-      <c r="F37" s="123" t="s">
+      <c r="F37" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
       <c r="I37" s="68"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -4493,17 +4493,17 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="127" t="s">
+      <c r="F38" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="128"/>
-      <c r="H38" s="129"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="70"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -4517,16 +4517,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="180"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="116"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -4539,14 +4539,14 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="174"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -4559,14 +4559,14 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="174"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -4579,14 +4579,14 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="175"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="177"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -4599,16 +4599,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="135"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="152"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -4621,15 +4621,15 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -4643,15 +4643,15 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -4665,15 +4665,15 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -4687,15 +4687,15 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="121"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
       <c r="I47" s="68"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -4709,16 +4709,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="132"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -4726,15 +4726,15 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="157" t="s">
+      <c r="B49" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="158"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -4760,15 +4760,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
-      <c r="B51" s="157" t="s">
+      <c r="B51" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="110"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -4794,14 +4794,14 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="168"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -4809,14 +4809,14 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="168"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -4824,14 +4824,14 @@
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="171"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="101"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -4854,11 +4854,11 @@
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="159" t="s">
+      <c r="B57" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="160"/>
-      <c r="D57" s="161"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="163"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="79" t="s">
         <v>38</v>
       </c>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="82"/>
+      <c r="C60" s="153"/>
       <c r="D60" s="80" t="s">
         <v>86</v>
       </c>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="162" t="s">
+      <c r="B61" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="164"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="73">
         <v>4</v>
       </c>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="165"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="72">
         <v>5</v>
       </c>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="154" t="s">
+      <c r="B63" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="129"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="71">
         <v>50</v>
       </c>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="155" t="s">
+      <c r="B64" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="156"/>
+      <c r="C64" s="85"/>
       <c r="D64" s="74">
         <v>66</v>
       </c>
@@ -5089,6 +5089,50 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="JlmkU2A/qCOqNtuxGXe+SVKYclyFs2igpOrvqEJgmC1cSq3wMFELsRLHn11yJqGHqT8B8B9tnhZ8vbhMRFGlaA==" saltValue="2am05ntsdCUtj9sTWLXQEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="B64:C64"/>
@@ -5105,50 +5149,6 @@
     <mergeCell ref="B40:I42"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="D8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:H22">
     <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
@@ -5280,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5311,189 +5311,189 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="108" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="89" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="162"/>
       <c r="M5" s="15"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="92" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="165"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="95" t="s">
+      <c r="C7" s="124"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="111" t="s">
+      <c r="C8" s="124"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="113"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="98" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="171"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="141" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="148"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="181"/>
       <c r="E11" s="181"/>
       <c r="F11" s="181"/>
       <c r="G11" s="181"/>
       <c r="H11" s="181"/>
       <c r="I11" s="181"/>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="63" x14ac:dyDescent="0.25">
@@ -5815,10 +5815,10 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="149" t="s">
+      <c r="K23" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="151"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -5830,15 +5830,15 @@
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="36" t="str">
+      <c r="G24" s="36">
         <f>IF($D$9="standard",SUMIFS(G13:G22, K13:K22, ""), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="152"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5899,16 +5899,16 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="17"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -5921,15 +5921,15 @@
     </row>
     <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="126"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="28"/>
       <c r="J28" s="17"/>
       <c r="K28" s="15"/>
@@ -5999,16 +5999,16 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="17"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -6021,15 +6021,15 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
       <c r="I32" s="28"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -6043,15 +6043,15 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="28"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -6065,15 +6065,15 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
       <c r="I34" s="28"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -6087,15 +6087,15 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
       <c r="I35" s="28"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -6109,17 +6109,17 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="61"/>
-      <c r="F36" s="138" t="s">
+      <c r="F36" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
       <c r="I36" s="28"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -6133,17 +6133,17 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
       <c r="E37" s="67"/>
-      <c r="F37" s="123" t="s">
+      <c r="F37" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
       <c r="I37" s="68"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -6157,17 +6157,17 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="127" t="s">
+      <c r="F38" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="128"/>
-      <c r="H38" s="129"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="70"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -6181,16 +6181,16 @@
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="180"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="116"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
@@ -6203,14 +6203,14 @@
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="174"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -6223,14 +6223,14 @@
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="174"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -6243,14 +6243,14 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="175"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="176"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="177"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
@@ -6263,16 +6263,16 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="135"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="152"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
@@ -6285,15 +6285,15 @@
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="I44" s="28"/>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
@@ -6307,15 +6307,15 @@
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="28"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
@@ -6329,15 +6329,15 @@
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
       <c r="I46" s="28"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
@@ -6351,15 +6351,15 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="121"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
       <c r="I47" s="68"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
@@ -6373,16 +6373,16 @@
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="132"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -6390,15 +6390,15 @@
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="157" t="s">
+      <c r="B49" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
       <c r="I49" s="28"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -6407,15 +6407,15 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="158"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
       <c r="I50" s="28"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -6424,15 +6424,15 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
-      <c r="B51" s="157" t="s">
+      <c r="B51" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
       <c r="I51" s="28"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -6441,16 +6441,16 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="110"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -6458,14 +6458,14 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="168"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="98"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
@@ -6473,14 +6473,14 @@
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="168"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="98"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
@@ -6488,14 +6488,14 @@
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="169"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="171"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="101"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -6533,11 +6533,11 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="132"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="107"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="154" t="s">
+      <c r="B59" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="128"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="71" t="s">
         <v>39</v>
       </c>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="82"/>
+      <c r="C60" s="153"/>
       <c r="D60" s="72" t="s">
         <v>38</v>
       </c>
@@ -6588,10 +6588,10 @@
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="154" t="s">
+      <c r="B61" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="129"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="73">
         <v>4</v>
       </c>
@@ -6607,10 +6607,10 @@
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="165"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="72">
         <v>5</v>
       </c>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="154" t="s">
+      <c r="B63" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="129"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="71">
         <v>50</v>
       </c>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="155" t="s">
+      <c r="B64" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="156"/>
+      <c r="C64" s="85"/>
       <c r="D64" s="74">
         <v>66</v>
       </c>
@@ -6749,28 +6749,31 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oJxLpNuUjx9MFBlVxObjL9zXLqa74Z223FiZtLoMDG9RPIA1ZvAg5vzF9kSBuHSxVCPouGEdCaraarVN8qu93g==" saltValue="WlTY9IqluZOZyB/V3WUPtg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="J11:L11"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="K23:K24"/>
@@ -6784,31 +6787,28 @@
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:H23">
     <cfRule type="expression" dxfId="42" priority="455">
